--- a/output/experiments/thesis_topic1/6h-bat-12months-0.6dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-12months-0.6dc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="157">
   <si>
     <t>status</t>
   </si>
@@ -416,6 +416,75 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -7370,7 +7439,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
@@ -7420,8 +7489,104 @@
       <c r="R45" t="s">
         <v>82</v>
       </c>
+      <c r="U45">
+        <v>259.9689304420941</v>
+      </c>
+      <c r="V45">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W45">
+        <v>3913.832762100003</v>
+      </c>
       <c r="X45" t="s">
         <v>128</v>
+      </c>
+      <c r="Y45">
+        <v>259.9689304420941</v>
+      </c>
+      <c r="Z45">
+        <v>241.9689304420941</v>
+      </c>
+      <c r="AA45">
+        <v>18</v>
+      </c>
+      <c r="AB45">
+        <v>18</v>
+      </c>
+      <c r="AC45">
+        <v>438</v>
+      </c>
+      <c r="AD45">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0.1211411684798102</v>
+      </c>
+      <c r="AH45">
+        <v>0.1211411684798102</v>
+      </c>
+      <c r="AI45">
+        <v>0.1127534698847187</v>
+      </c>
+      <c r="AK45">
+        <v>105.72771822</v>
+      </c>
+      <c r="AL45">
+        <v>136.2412122220941</v>
+      </c>
+      <c r="AN45">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO45">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP45">
+        <v>530.2951205625114</v>
+      </c>
+      <c r="AQ45">
+        <v>2145.999858713774</v>
+      </c>
+      <c r="AR45">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS45">
+        <v>1138.963731327242</v>
+      </c>
+      <c r="AT45">
+        <v>77.95116703029737</v>
+      </c>
+      <c r="AU45">
+        <v>148.4422916368418</v>
+      </c>
+      <c r="AV45">
+        <v>12.20107941474768</v>
+      </c>
+      <c r="AW45">
+        <v>176.2128637</v>
+      </c>
+      <c r="AX45">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY45">
+        <v>6.023539463669574E-16</v>
+      </c>
+      <c r="AZ45">
+        <v>-8.928770399999998</v>
+      </c>
+      <c r="BA45">
+        <v>7.429690699999995</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:55">
@@ -7429,7 +7594,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
@@ -7485,8 +7650,104 @@
       <c r="T46">
         <v>0.03</v>
       </c>
+      <c r="U46">
+        <v>262.3256190672621</v>
+      </c>
+      <c r="V46">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W46">
+        <v>4008.1411921</v>
+      </c>
       <c r="X46" t="s">
         <v>129</v>
+      </c>
+      <c r="Y46">
+        <v>262.3256190672621</v>
+      </c>
+      <c r="Z46">
+        <v>244.3256190672621</v>
+      </c>
+      <c r="AA46">
+        <v>18</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>438</v>
+      </c>
+      <c r="AD46">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0.1222393459170541</v>
+      </c>
+      <c r="AH46">
+        <v>0.1222393459170541</v>
+      </c>
+      <c r="AI46">
+        <v>0.1138516473219627</v>
+      </c>
+      <c r="AK46">
+        <v>105.6205314550717</v>
+      </c>
+      <c r="AL46">
+        <v>138.7050876121904</v>
+      </c>
+      <c r="AN46">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO46">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP46">
+        <v>530.2951205625097</v>
+      </c>
+      <c r="AQ46">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AR46">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS46">
+        <v>1121.067246091515</v>
+      </c>
+      <c r="AT46">
+        <v>59.30216006591483</v>
+      </c>
+      <c r="AU46">
+        <v>147.6309738583993</v>
+      </c>
+      <c r="AV46">
+        <v>8.925886246208846</v>
+      </c>
+      <c r="AW46">
+        <v>176.0342190917861</v>
+      </c>
+      <c r="AX46">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="AY46">
+        <v>3.764712164793484E-17</v>
+      </c>
+      <c r="AZ46">
+        <v>-9.027763313279181</v>
+      </c>
+      <c r="BA46">
+        <v>11.32321040387404</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:55">
@@ -7494,7 +7755,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
@@ -7544,8 +7805,104 @@
       <c r="R47" t="s">
         <v>82</v>
       </c>
+      <c r="U47">
+        <v>258.413835312995</v>
+      </c>
+      <c r="V47">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W47">
+        <v>3434.058429600002</v>
+      </c>
       <c r="X47" t="s">
         <v>130</v>
+      </c>
+      <c r="Y47">
+        <v>258.413835312995</v>
+      </c>
+      <c r="Z47">
+        <v>240.413835312995</v>
+      </c>
+      <c r="AA47">
+        <v>18</v>
+      </c>
+      <c r="AB47">
+        <v>18</v>
+      </c>
+      <c r="AC47">
+        <v>438</v>
+      </c>
+      <c r="AD47">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0.1204165201892781</v>
+      </c>
+      <c r="AH47">
+        <v>0.1204165201892781</v>
+      </c>
+      <c r="AI47">
+        <v>0.1120288215941866</v>
+      </c>
+      <c r="AK47">
+        <v>104.352103293657</v>
+      </c>
+      <c r="AL47">
+        <v>136.0617320193381</v>
+      </c>
+      <c r="AN47">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO47">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP47">
+        <v>530.2951205625109</v>
+      </c>
+      <c r="AQ47">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AR47">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS47">
+        <v>1141.184065907116</v>
+      </c>
+      <c r="AT47">
+        <v>79.87912893561716</v>
+      </c>
+      <c r="AU47">
+        <v>148.8232643084481</v>
+      </c>
+      <c r="AV47">
+        <v>12.76153228911005</v>
+      </c>
+      <c r="AW47">
+        <v>173.920172156095</v>
+      </c>
+      <c r="AX47">
+        <v>1.4210854715202E-14</v>
+      </c>
+      <c r="AY47">
+        <v>2.40941578546783E-15</v>
+      </c>
+      <c r="AZ47">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="BA47">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:55">
@@ -7553,7 +7910,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -7603,16 +7960,112 @@
       <c r="R48" t="s">
         <v>82</v>
       </c>
+      <c r="U48">
+        <v>260.3549877483315</v>
+      </c>
+      <c r="V48">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W48">
+        <v>4566.8816076</v>
+      </c>
       <c r="X48" t="s">
         <v>131</v>
       </c>
+      <c r="Y48">
+        <v>260.3549877483315</v>
+      </c>
+      <c r="Z48">
+        <v>242.3549877483315</v>
+      </c>
+      <c r="AA48">
+        <v>18</v>
+      </c>
+      <c r="AB48">
+        <v>18</v>
+      </c>
+      <c r="AC48">
+        <v>438</v>
+      </c>
+      <c r="AD48">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0.1213210647200964</v>
+      </c>
+      <c r="AH48">
+        <v>0.1213210647200964</v>
+      </c>
+      <c r="AI48">
+        <v>0.112933366125005</v>
+      </c>
+      <c r="AK48">
+        <v>105.50034</v>
+      </c>
+      <c r="AL48">
+        <v>136.8546477483315</v>
+      </c>
+      <c r="AN48">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO48">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP48">
+        <v>530.295120562511</v>
+      </c>
+      <c r="AQ48">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AR48">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS48">
+        <v>1144.690231635854</v>
+      </c>
+      <c r="AT48">
+        <v>83.3926483935527</v>
+      </c>
+      <c r="AU48">
+        <v>149.9715092063018</v>
+      </c>
+      <c r="AV48">
+        <v>13.11686145797029</v>
+      </c>
+      <c r="AW48">
+        <v>175.8339</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>-13.0012</v>
+      </c>
+      <c r="BA48">
+        <v>14.71709999999999</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:55">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -7662,16 +8115,112 @@
       <c r="R49" t="s">
         <v>83</v>
       </c>
+      <c r="U49">
+        <v>284.9565950485669</v>
+      </c>
+      <c r="V49">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W49">
+        <v>2651.235708</v>
+      </c>
       <c r="X49" t="s">
         <v>132</v>
       </c>
+      <c r="Y49">
+        <v>284.9565950485669</v>
+      </c>
+      <c r="Z49">
+        <v>266.9565950485669</v>
+      </c>
+      <c r="AA49">
+        <v>18</v>
+      </c>
+      <c r="AB49">
+        <v>18</v>
+      </c>
+      <c r="AC49">
+        <v>438</v>
+      </c>
+      <c r="AD49">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0.1327850017750508</v>
+      </c>
+      <c r="AH49">
+        <v>0.1327850017750508</v>
+      </c>
+      <c r="AI49">
+        <v>0.1243973031799593</v>
+      </c>
+      <c r="AK49">
+        <v>82.82579859399051</v>
+      </c>
+      <c r="AL49">
+        <v>184.1307964545764</v>
+      </c>
+      <c r="AN49">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO49">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP49">
+        <v>530.2951205625095</v>
+      </c>
+      <c r="AQ49">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AR49">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS49">
+        <v>1050.96200448077</v>
+      </c>
+      <c r="AT49">
+        <v>10.15305457700342</v>
+      </c>
+      <c r="AU49">
+        <v>185.1378177561841</v>
+      </c>
+      <c r="AV49">
+        <v>1.007021301607659</v>
+      </c>
+      <c r="AW49">
+        <v>138.0429976566509</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:55">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -7721,16 +8270,112 @@
       <c r="R50" t="s">
         <v>82</v>
       </c>
+      <c r="U50">
+        <v>279.8067891908049</v>
+      </c>
+      <c r="V50">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W50">
+        <v>4451.632740900004</v>
+      </c>
       <c r="X50" t="s">
         <v>133</v>
       </c>
+      <c r="Y50">
+        <v>279.8067891908049</v>
+      </c>
+      <c r="Z50">
+        <v>261.8067891908049</v>
+      </c>
+      <c r="AA50">
+        <v>18</v>
+      </c>
+      <c r="AB50">
+        <v>18</v>
+      </c>
+      <c r="AC50">
+        <v>438</v>
+      </c>
+      <c r="AD50">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0.1251552813233601</v>
+      </c>
+      <c r="AH50">
+        <v>0.1251552813233601</v>
+      </c>
+      <c r="AI50">
+        <v>0.117104028991937</v>
+      </c>
+      <c r="AK50">
+        <v>88.56148183918201</v>
+      </c>
+      <c r="AL50">
+        <v>173.2453073516228</v>
+      </c>
+      <c r="AN50">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO50">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP50">
+        <v>594.7664934678277</v>
+      </c>
+      <c r="AQ50">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR50">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS50">
+        <v>1285.964522065928</v>
+      </c>
+      <c r="AT50">
+        <v>14.39977265977131</v>
+      </c>
+      <c r="AU50">
+        <v>175.7741389441223</v>
+      </c>
+      <c r="AV50">
+        <v>2.5288315924995</v>
+      </c>
+      <c r="AW50">
+        <v>147.60246973197</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:55">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -7780,13 +8425,112 @@
       <c r="R51" t="s">
         <v>82</v>
       </c>
+      <c r="U51">
+        <v>292.7564720699156</v>
+      </c>
+      <c r="V51">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W51">
+        <v>4233.507264899996</v>
+      </c>
+      <c r="X51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y51">
+        <v>292.7564720699156</v>
+      </c>
+      <c r="Z51">
+        <v>274.7564720699156</v>
+      </c>
+      <c r="AA51">
+        <v>18</v>
+      </c>
+      <c r="AB51">
+        <v>18</v>
+      </c>
+      <c r="AC51">
+        <v>438</v>
+      </c>
+      <c r="AD51">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0.1309475682384506</v>
+      </c>
+      <c r="AH51">
+        <v>0.1309475682384506</v>
+      </c>
+      <c r="AI51">
+        <v>0.1228963159070275</v>
+      </c>
+      <c r="AK51">
+        <v>107.68123944</v>
+      </c>
+      <c r="AL51">
+        <v>167.0752326299155</v>
+      </c>
+      <c r="AN51">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO51">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP51">
+        <v>594.7664934678285</v>
+      </c>
+      <c r="AQ51">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR51">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS51">
+        <v>1312.3885158198</v>
+      </c>
+      <c r="AT51">
+        <v>38.4001684785129</v>
+      </c>
+      <c r="AU51">
+        <v>172.5188796019045</v>
+      </c>
+      <c r="AV51">
+        <v>5.443646971988997</v>
+      </c>
+      <c r="AW51">
+        <v>179.4687324</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>-15.2578629</v>
+      </c>
+      <c r="BA51">
+        <v>13.17740139999999</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:55">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
@@ -7842,13 +8586,112 @@
       <c r="T52">
         <v>0.03</v>
       </c>
+      <c r="U52">
+        <v>295.4744262699326</v>
+      </c>
+      <c r="V52">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W52">
+        <v>3864.145781399999</v>
+      </c>
+      <c r="X52" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y52">
+        <v>295.4744262699326</v>
+      </c>
+      <c r="Z52">
+        <v>277.4744262699326</v>
+      </c>
+      <c r="AA52">
+        <v>18</v>
+      </c>
+      <c r="AB52">
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <v>438</v>
+      </c>
+      <c r="AD52">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0.1321632868545389</v>
+      </c>
+      <c r="AH52">
+        <v>0.1321632868545389</v>
+      </c>
+      <c r="AI52">
+        <v>0.1241120345231158</v>
+      </c>
+      <c r="AK52">
+        <v>106.4286694238621</v>
+      </c>
+      <c r="AL52">
+        <v>171.0457568460705</v>
+      </c>
+      <c r="AN52">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO52">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP52">
+        <v>594.7664934678266</v>
+      </c>
+      <c r="AQ52">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR52">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS52">
+        <v>1297.827850434747</v>
+      </c>
+      <c r="AT52">
+        <v>23.27808072212733</v>
+      </c>
+      <c r="AU52">
+        <v>174.613785218566</v>
+      </c>
+      <c r="AV52">
+        <v>3.568028372495485</v>
+      </c>
+      <c r="AW52">
+        <v>177.3811157064368</v>
+      </c>
+      <c r="AX52">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY52">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ52">
+        <v>-10.04302889505402</v>
+      </c>
+      <c r="BA52">
+        <v>10.82110353986559</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:55">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -7898,13 +8741,112 @@
       <c r="R53" t="s">
         <v>82</v>
       </c>
+      <c r="U53">
+        <v>291.7210463670705</v>
+      </c>
+      <c r="V53">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W53">
+        <v>3933.365212500001</v>
+      </c>
+      <c r="X53" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y53">
+        <v>291.7210463670705</v>
+      </c>
+      <c r="Z53">
+        <v>273.7210463670705</v>
+      </c>
+      <c r="AA53">
+        <v>18</v>
+      </c>
+      <c r="AB53">
+        <v>18</v>
+      </c>
+      <c r="AC53">
+        <v>438</v>
+      </c>
+      <c r="AD53">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0.1304844308160035</v>
+      </c>
+      <c r="AH53">
+        <v>0.1304844308160035</v>
+      </c>
+      <c r="AI53">
+        <v>0.1224331784845804</v>
+      </c>
+      <c r="AK53">
+        <v>106.248898163098</v>
+      </c>
+      <c r="AL53">
+        <v>167.4721482039724</v>
+      </c>
+      <c r="AN53">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO53">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP53">
+        <v>594.7664934678284</v>
+      </c>
+      <c r="AQ53">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR53">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS53">
+        <v>1303.865392640163</v>
+      </c>
+      <c r="AT53">
+        <v>29.98702222517237</v>
+      </c>
+      <c r="AU53">
+        <v>172.1772977655354</v>
+      </c>
+      <c r="AV53">
+        <v>4.705149561562921</v>
+      </c>
+      <c r="AW53">
+        <v>177.0814969384967</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>-11.5999000202558</v>
+      </c>
+      <c r="BA53">
+        <v>15.29257621962125</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:55">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -7954,13 +8896,112 @@
       <c r="R54" t="s">
         <v>82</v>
       </c>
+      <c r="U54">
+        <v>291.4950633520672</v>
+      </c>
+      <c r="V54">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W54">
+        <v>5353.405958700001</v>
+      </c>
+      <c r="X54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y54">
+        <v>291.4950633520672</v>
+      </c>
+      <c r="Z54">
+        <v>273.4950633520672</v>
+      </c>
+      <c r="AA54">
+        <v>18</v>
+      </c>
+      <c r="AB54">
+        <v>18</v>
+      </c>
+      <c r="AC54">
+        <v>438</v>
+      </c>
+      <c r="AD54">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0.1303833504673142</v>
+      </c>
+      <c r="AH54">
+        <v>0.1303833504673142</v>
+      </c>
+      <c r="AI54">
+        <v>0.1223320981358911</v>
+      </c>
+      <c r="AK54">
+        <v>105.43656</v>
+      </c>
+      <c r="AL54">
+        <v>168.0585033520672</v>
+      </c>
+      <c r="AN54">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO54">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP54">
+        <v>594.7664934678285</v>
+      </c>
+      <c r="AQ54">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR54">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS54">
+        <v>1304.637381713183</v>
+      </c>
+      <c r="AT54">
+        <v>30.90425842165865</v>
+      </c>
+      <c r="AU54">
+        <v>173.0131392577902</v>
+      </c>
+      <c r="AV54">
+        <v>4.954635905723038</v>
+      </c>
+      <c r="AW54">
+        <v>175.7276</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>-14.2308</v>
+      </c>
+      <c r="BA54">
+        <v>17.12100000000001</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:55">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -8010,13 +9051,112 @@
       <c r="R55" t="s">
         <v>83</v>
       </c>
+      <c r="U55">
+        <v>348.3531467499972</v>
+      </c>
+      <c r="V55">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W55">
+        <v>2549.584180600003</v>
+      </c>
+      <c r="X55" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y55">
+        <v>348.3531467499972</v>
+      </c>
+      <c r="Z55">
+        <v>330.3531467499972</v>
+      </c>
+      <c r="AA55">
+        <v>18</v>
+      </c>
+      <c r="AB55">
+        <v>18</v>
+      </c>
+      <c r="AC55">
+        <v>438</v>
+      </c>
+      <c r="AD55">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0.1558155047183051</v>
+      </c>
+      <c r="AH55">
+        <v>0.1558155047183051</v>
+      </c>
+      <c r="AI55">
+        <v>0.147764252386882</v>
+      </c>
+      <c r="AK55">
+        <v>108.7429839565256</v>
+      </c>
+      <c r="AL55">
+        <v>221.6101627934716</v>
+      </c>
+      <c r="AN55">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO55">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP55">
+        <v>594.7664934678266</v>
+      </c>
+      <c r="AQ55">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR55">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS55">
+        <v>1252.275043262551</v>
+      </c>
+      <c r="AT55">
+        <v>6.041711070304707E-15</v>
+      </c>
+      <c r="AU55">
+        <v>221.6101627934716</v>
+      </c>
+      <c r="AV55">
+        <v>4.94580687623598E-16</v>
+      </c>
+      <c r="AW55">
+        <v>181.2383065942093</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:55">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
@@ -8066,13 +9206,112 @@
       <c r="R56" t="s">
         <v>82</v>
       </c>
+      <c r="U56">
+        <v>339.9099808382465</v>
+      </c>
+      <c r="V56">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W56">
+        <v>5697.386394699999</v>
+      </c>
+      <c r="X56" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y56">
+        <v>339.9099808382465</v>
+      </c>
+      <c r="Z56">
+        <v>321.9099808382465</v>
+      </c>
+      <c r="AA56">
+        <v>18</v>
+      </c>
+      <c r="AB56">
+        <v>18</v>
+      </c>
+      <c r="AC56">
+        <v>438</v>
+      </c>
+      <c r="AD56">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0.1262058737853989</v>
+      </c>
+      <c r="AH56">
+        <v>0.1262058737853989</v>
+      </c>
+      <c r="AI56">
+        <v>0.1195226168756283</v>
+      </c>
+      <c r="AK56">
+        <v>80.86705990883932</v>
+      </c>
+      <c r="AL56">
+        <v>251.3858279808227</v>
+      </c>
+      <c r="AN56">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO56">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP56">
+        <v>832.0349031040985</v>
+      </c>
+      <c r="AQ56">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR56">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS56">
+        <v>1787.098664323864</v>
+      </c>
+      <c r="AT56">
+        <v>1.10288652160475E-14</v>
+      </c>
+      <c r="AU56">
+        <v>251.3858279808227</v>
+      </c>
+      <c r="AV56">
+        <v>1.430315104003324E-15</v>
+      </c>
+      <c r="AW56">
+        <v>134.7784331813989</v>
+      </c>
+      <c r="AX56">
+        <v>61.00298268443759</v>
+      </c>
+      <c r="AY56">
+        <v>10.34290705141554</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:55">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -8122,13 +9361,112 @@
       <c r="R57" t="s">
         <v>82</v>
       </c>
+      <c r="U57">
+        <v>379.5842343396458</v>
+      </c>
+      <c r="V57">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W57">
+        <v>6370.666004500003</v>
+      </c>
+      <c r="X57" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y57">
+        <v>379.5842343396458</v>
+      </c>
+      <c r="Z57">
+        <v>361.5842343396458</v>
+      </c>
+      <c r="AA57">
+        <v>18</v>
+      </c>
+      <c r="AB57">
+        <v>18</v>
+      </c>
+      <c r="AC57">
+        <v>438</v>
+      </c>
+      <c r="AD57">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0.1409366087216886</v>
+      </c>
+      <c r="AH57">
+        <v>0.1409366087216886</v>
+      </c>
+      <c r="AI57">
+        <v>0.1342533518119181</v>
+      </c>
+      <c r="AK57">
+        <v>116.4712629</v>
+      </c>
+      <c r="AL57">
+        <v>245.1129714396458</v>
+      </c>
+      <c r="AN57">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO57">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP57">
+        <v>832.0349031040981</v>
+      </c>
+      <c r="AQ57">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR57">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS57">
+        <v>1796.756024848255</v>
+      </c>
+      <c r="AT57">
+        <v>10.07151732154984</v>
+      </c>
+      <c r="AU57">
+        <v>246.3404980861127</v>
+      </c>
+      <c r="AV57">
+        <v>1.227526646466891</v>
+      </c>
+      <c r="AW57">
+        <v>194.1187715</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>-8.451232900000001</v>
+      </c>
+      <c r="BA57">
+        <v>25.23137149999999</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:55">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
@@ -8184,13 +9522,112 @@
       <c r="T58">
         <v>0.03</v>
       </c>
+      <c r="U58">
+        <v>376.8551578332443</v>
+      </c>
+      <c r="V58">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W58">
+        <v>6908.566223300004</v>
+      </c>
+      <c r="X58" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y58">
+        <v>376.8551578332443</v>
+      </c>
+      <c r="Z58">
+        <v>358.8551578332443</v>
+      </c>
+      <c r="AA58">
+        <v>18</v>
+      </c>
+      <c r="AB58">
+        <v>18</v>
+      </c>
+      <c r="AC58">
+        <v>438</v>
+      </c>
+      <c r="AD58">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0.1399233243095385</v>
+      </c>
+      <c r="AH58">
+        <v>0.1399233243095385</v>
+      </c>
+      <c r="AI58">
+        <v>0.133240067399768</v>
+      </c>
+      <c r="AK58">
+        <v>107.058181939027</v>
+      </c>
+      <c r="AL58">
+        <v>251.7969758942173</v>
+      </c>
+      <c r="AN58">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO58">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP58">
+        <v>832.0349031040996</v>
+      </c>
+      <c r="AQ58">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR58">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS58">
+        <v>1795.472260451524</v>
+      </c>
+      <c r="AT58">
+        <v>8.031557413393195</v>
+      </c>
+      <c r="AU58">
+        <v>252.8780922538922</v>
+      </c>
+      <c r="AV58">
+        <v>1.081116359674888</v>
+      </c>
+      <c r="AW58">
+        <v>178.4303032317117</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>-13.32749125504222</v>
+      </c>
+      <c r="BA58">
+        <v>12.04276345426355</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:55">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -8240,13 +9677,112 @@
       <c r="R59" t="s">
         <v>82</v>
       </c>
+      <c r="U59">
+        <v>371.0863959368644</v>
+      </c>
+      <c r="V59">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W59">
+        <v>4959.816558400002</v>
+      </c>
+      <c r="X59" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y59">
+        <v>371.0863959368644</v>
+      </c>
+      <c r="Z59">
+        <v>353.0863959368644</v>
+      </c>
+      <c r="AA59">
+        <v>18</v>
+      </c>
+      <c r="AB59">
+        <v>18</v>
+      </c>
+      <c r="AC59">
+        <v>438</v>
+      </c>
+      <c r="AD59">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0.1377814288759384</v>
+      </c>
+      <c r="AH59">
+        <v>0.1377814288759384</v>
+      </c>
+      <c r="AI59">
+        <v>0.1310981719661679</v>
+      </c>
+      <c r="AK59">
+        <v>108.1378678442093</v>
+      </c>
+      <c r="AL59">
+        <v>244.9485280926551</v>
+      </c>
+      <c r="AN59">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO59">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP59">
+        <v>832.0349031040992</v>
+      </c>
+      <c r="AQ59">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR59">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS59">
+        <v>1789.767882400403</v>
+      </c>
+      <c r="AT59">
+        <v>3.095472118295333</v>
+      </c>
+      <c r="AU59">
+        <v>245.3996782861724</v>
+      </c>
+      <c r="AV59">
+        <v>0.4511501935172536</v>
+      </c>
+      <c r="AW59">
+        <v>180.2297797403488</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BA59">
+        <v>11.8668929871788</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:55">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
@@ -8296,13 +9832,112 @@
       <c r="R60" t="s">
         <v>82</v>
       </c>
+      <c r="U60">
+        <v>372.3516910614026</v>
+      </c>
+      <c r="V60">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W60">
+        <v>6275.370846099999</v>
+      </c>
+      <c r="X60" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y60">
+        <v>372.3516910614026</v>
+      </c>
+      <c r="Z60">
+        <v>354.3516910614026</v>
+      </c>
+      <c r="AA60">
+        <v>18</v>
+      </c>
+      <c r="AB60">
+        <v>18</v>
+      </c>
+      <c r="AC60">
+        <v>438</v>
+      </c>
+      <c r="AD60">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0.1382512228972701</v>
+      </c>
+      <c r="AH60">
+        <v>0.1382512228972701</v>
+      </c>
+      <c r="AI60">
+        <v>0.1315679659874995</v>
+      </c>
+      <c r="AK60">
+        <v>108.11478</v>
+      </c>
+      <c r="AL60">
+        <v>246.2369110614025</v>
+      </c>
+      <c r="AN60">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO60">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP60">
+        <v>832.0349031040978</v>
+      </c>
+      <c r="AQ60">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR60">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS60">
+        <v>1793.102932933401</v>
+      </c>
+      <c r="AT60">
+        <v>6.494665220806609</v>
+      </c>
+      <c r="AU60">
+        <v>247.1650207975077</v>
+      </c>
+      <c r="AV60">
+        <v>0.928109736105134</v>
+      </c>
+      <c r="AW60">
+        <v>180.1913</v>
+      </c>
+      <c r="AX60">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="AY60">
+        <v>1.204707892733915E-15</v>
+      </c>
+      <c r="AZ60">
+        <v>-16.59869999999999</v>
+      </c>
+      <c r="BA60">
+        <v>15.94899999999999</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:55">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>57</v>
@@ -8352,13 +9987,112 @@
       <c r="R61" t="s">
         <v>83</v>
       </c>
+      <c r="U61">
+        <v>440.3534665142407</v>
+      </c>
+      <c r="V61">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W61">
+        <v>3227.808416500004</v>
+      </c>
+      <c r="X61" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y61">
+        <v>440.3534665142407</v>
+      </c>
+      <c r="Z61">
+        <v>422.3534665142407</v>
+      </c>
+      <c r="AA61">
+        <v>18</v>
+      </c>
+      <c r="AB61">
+        <v>18</v>
+      </c>
+      <c r="AC61">
+        <v>438</v>
+      </c>
+      <c r="AD61">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0.1634997415457058</v>
+      </c>
+      <c r="AH61">
+        <v>0.1634997415457058</v>
+      </c>
+      <c r="AI61">
+        <v>0.1568164846359352</v>
+      </c>
+      <c r="AK61">
+        <v>103.1540411937717</v>
+      </c>
+      <c r="AL61">
+        <v>319.199425320469</v>
+      </c>
+      <c r="AN61">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO61">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP61">
+        <v>832.0349031040996</v>
+      </c>
+      <c r="AQ61">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR61">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS61">
+        <v>1762.218360629182</v>
+      </c>
+      <c r="AT61">
+        <v>3.854843615182527E-15</v>
+      </c>
+      <c r="AU61">
+        <v>319.199425320469</v>
+      </c>
+      <c r="AV61">
+        <v>3.394555225146606E-16</v>
+      </c>
+      <c r="AW61">
+        <v>171.9234019896195</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:55">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>55</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
@@ -8408,13 +10142,112 @@
       <c r="R62" t="s">
         <v>82</v>
       </c>
+      <c r="U62">
+        <v>387.0368013301942</v>
+      </c>
+      <c r="V62">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W62">
+        <v>5517.785017000002</v>
+      </c>
+      <c r="X62" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y62">
+        <v>387.0368013301942</v>
+      </c>
+      <c r="Z62">
+        <v>369.0368013301942</v>
+      </c>
+      <c r="AA62">
+        <v>18</v>
+      </c>
+      <c r="AB62">
+        <v>18</v>
+      </c>
+      <c r="AC62">
+        <v>438</v>
+      </c>
+      <c r="AD62">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0.1538528705178946</v>
+      </c>
+      <c r="AH62">
+        <v>0.1538528705178946</v>
+      </c>
+      <c r="AI62">
+        <v>0.1466976034740265</v>
+      </c>
+      <c r="AK62">
+        <v>101.067015513013</v>
+      </c>
+      <c r="AL62">
+        <v>267.9697858171812</v>
+      </c>
+      <c r="AN62">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO62">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP62">
+        <v>754.4330897207797</v>
+      </c>
+      <c r="AQ62">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR62">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS62">
+        <v>1914.615875829375</v>
+      </c>
+      <c r="AT62">
+        <v>0.9686625835503768</v>
+      </c>
+      <c r="AU62">
+        <v>268.1406578969195</v>
+      </c>
+      <c r="AV62">
+        <v>0.170872079738286</v>
+      </c>
+      <c r="AW62">
+        <v>168.4450258550217</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:55">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
@@ -8464,13 +10297,112 @@
       <c r="R63" t="s">
         <v>82</v>
       </c>
+      <c r="U63">
+        <v>396.1762108619537</v>
+      </c>
+      <c r="V63">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W63">
+        <v>4971.310907800005</v>
+      </c>
+      <c r="X63" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y63">
+        <v>396.1762108619537</v>
+      </c>
+      <c r="Z63">
+        <v>378.1762108619537</v>
+      </c>
+      <c r="AA63">
+        <v>18</v>
+      </c>
+      <c r="AB63">
+        <v>18</v>
+      </c>
+      <c r="AC63">
+        <v>438</v>
+      </c>
+      <c r="AD63">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0.1574859213969509</v>
+      </c>
+      <c r="AH63">
+        <v>0.1574859213969509</v>
+      </c>
+      <c r="AI63">
+        <v>0.1503306543530827</v>
+      </c>
+      <c r="AK63">
+        <v>110.84218206</v>
+      </c>
+      <c r="AL63">
+        <v>267.3340288019537</v>
+      </c>
+      <c r="AN63">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO63">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP63">
+        <v>754.4330897207798</v>
+      </c>
+      <c r="AQ63">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR63">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS63">
+        <v>1933.022584373438</v>
+      </c>
+      <c r="AT63">
+        <v>18.56556949242909</v>
+      </c>
+      <c r="AU63">
+        <v>269.6791775044766</v>
+      </c>
+      <c r="AV63">
+        <v>2.345148702522902</v>
+      </c>
+      <c r="AW63">
+        <v>184.7369701</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>-62.6875752</v>
+      </c>
+      <c r="BA63">
+        <v>15.84957010000001</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:55">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>56</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
@@ -8526,13 +10458,16 @@
       <c r="T64">
         <v>0.03</v>
       </c>
+      <c r="X64" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:55">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>55</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -8582,13 +10517,112 @@
       <c r="R65" t="s">
         <v>82</v>
       </c>
+      <c r="U65">
+        <v>407.1938633905412</v>
+      </c>
+      <c r="V65">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W65">
+        <v>5085.127250199999</v>
+      </c>
+      <c r="X65" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y65">
+        <v>407.1938633905412</v>
+      </c>
+      <c r="Z65">
+        <v>389.1938633905412</v>
+      </c>
+      <c r="AA65">
+        <v>18</v>
+      </c>
+      <c r="AB65">
+        <v>18</v>
+      </c>
+      <c r="AC65">
+        <v>438</v>
+      </c>
+      <c r="AD65">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0.1618656017324283</v>
+      </c>
+      <c r="AH65">
+        <v>0.1618656017324283</v>
+      </c>
+      <c r="AI65">
+        <v>0.1547103346885601</v>
+      </c>
+      <c r="AK65">
+        <v>122.26998</v>
+      </c>
+      <c r="AL65">
+        <v>266.9238833905412</v>
+      </c>
+      <c r="AN65">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO65">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP65">
+        <v>754.4330897207802</v>
+      </c>
+      <c r="AQ65">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR65">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS65">
+        <v>1926.371985519422</v>
+      </c>
+      <c r="AT65">
+        <v>11.82981129834623</v>
+      </c>
+      <c r="AU65">
+        <v>268.5588042196389</v>
+      </c>
+      <c r="AV65">
+        <v>1.634920829097744</v>
+      </c>
+      <c r="AW65">
+        <v>203.7833</v>
+      </c>
+      <c r="AX65">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY65">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ65">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="BA65">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:55">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>55</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
@@ -8638,13 +10672,112 @@
       <c r="R66" t="s">
         <v>82</v>
       </c>
+      <c r="U66">
+        <v>402.0134982322932</v>
+      </c>
+      <c r="V66">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W66">
+        <v>4273.470481099997</v>
+      </c>
+      <c r="X66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y66">
+        <v>402.0134982322932</v>
+      </c>
+      <c r="Z66">
+        <v>384.0134982322932</v>
+      </c>
+      <c r="AA66">
+        <v>18</v>
+      </c>
+      <c r="AB66">
+        <v>18</v>
+      </c>
+      <c r="AC66">
+        <v>438</v>
+      </c>
+      <c r="AD66">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0.1598063297273164</v>
+      </c>
+      <c r="AH66">
+        <v>0.1598063297273164</v>
+      </c>
+      <c r="AI66">
+        <v>0.1526510626834482</v>
+      </c>
+      <c r="AK66">
+        <v>113.03934</v>
+      </c>
+      <c r="AL66">
+        <v>270.9741582322932</v>
+      </c>
+      <c r="AN66">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO66">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP66">
+        <v>754.43308972078</v>
+      </c>
+      <c r="AQ66">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR66">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS66">
+        <v>1922.033884251562</v>
+      </c>
+      <c r="AT66">
+        <v>8.107836303821342</v>
+      </c>
+      <c r="AU66">
+        <v>272.2212149102388</v>
+      </c>
+      <c r="AV66">
+        <v>1.247056677945495</v>
+      </c>
+      <c r="AW66">
+        <v>188.3989</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>-61.0537</v>
+      </c>
+      <c r="BA66">
+        <v>57.7833</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:55">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>57</v>
@@ -8694,13 +10827,112 @@
       <c r="R67" t="s">
         <v>83</v>
       </c>
+      <c r="U67">
+        <v>480.1991331359791</v>
+      </c>
+      <c r="V67">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W67">
+        <v>3013.441127099999</v>
+      </c>
+      <c r="X67" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y67">
+        <v>480.1991331359791</v>
+      </c>
+      <c r="Z67">
+        <v>462.1991331359791</v>
+      </c>
+      <c r="AA67">
+        <v>18</v>
+      </c>
+      <c r="AB67">
+        <v>18</v>
+      </c>
+      <c r="AC67">
+        <v>438</v>
+      </c>
+      <c r="AD67">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0.1908862795456639</v>
+      </c>
+      <c r="AH67">
+        <v>0.1908862795456639</v>
+      </c>
+      <c r="AI67">
+        <v>0.1837310125017957</v>
+      </c>
+      <c r="AK67">
+        <v>122.7362998923553</v>
+      </c>
+      <c r="AL67">
+        <v>339.4628332436238</v>
+      </c>
+      <c r="AN67">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO67">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP67">
+        <v>754.4330897207794</v>
+      </c>
+      <c r="AQ67">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR67">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS67">
+        <v>1890.98697588306</v>
+      </c>
+      <c r="AT67">
+        <v>4.312863601044721E-15</v>
+      </c>
+      <c r="AU67">
+        <v>339.4628332436238</v>
+      </c>
+      <c r="AV67">
+        <v>3.180516635054375E-16</v>
+      </c>
+      <c r="AW67">
+        <v>204.5604998205922</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:55">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>56</v>
       </c>
       <c r="C68" t="s">
         <v>57</v>
@@ -8750,13 +10982,16 @@
       <c r="R68" t="s">
         <v>82</v>
       </c>
+      <c r="X68" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:55">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>57</v>
@@ -8806,13 +11041,112 @@
       <c r="R69" t="s">
         <v>82</v>
       </c>
+      <c r="U69">
+        <v>353.081370355831</v>
+      </c>
+      <c r="V69">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W69">
+        <v>3531.498032299998</v>
+      </c>
+      <c r="X69" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y69">
+        <v>353.081370355831</v>
+      </c>
+      <c r="Z69">
+        <v>335.081370355831</v>
+      </c>
+      <c r="AA69">
+        <v>18</v>
+      </c>
+      <c r="AB69">
+        <v>18</v>
+      </c>
+      <c r="AC69">
+        <v>438</v>
+      </c>
+      <c r="AD69">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0.1710889204359024</v>
+      </c>
+      <c r="AH69">
+        <v>0.1710889204359024</v>
+      </c>
+      <c r="AI69">
+        <v>0.1623668500396573</v>
+      </c>
+      <c r="AK69">
+        <v>115.55719158</v>
+      </c>
+      <c r="AL69">
+        <v>219.524178775831</v>
+      </c>
+      <c r="AN69">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO69">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP69">
+        <v>549.6920444315268</v>
+      </c>
+      <c r="AQ69">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR69">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS69">
+        <v>1643.108366892747</v>
+      </c>
+      <c r="AT69">
+        <v>29.3215120493901</v>
+      </c>
+      <c r="AU69">
+        <v>223.7685704340535</v>
+      </c>
+      <c r="AV69">
+        <v>4.244391658222419</v>
+      </c>
+      <c r="AW69">
+        <v>192.5953193</v>
+      </c>
+      <c r="AX69">
+        <v>2.664535259100376E-14</v>
+      </c>
+      <c r="AY69">
+        <v>4.517659836589635E-15</v>
+      </c>
+      <c r="AZ69">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="BA69">
+        <v>23.7079193</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:55">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
@@ -8868,13 +11202,16 @@
       <c r="T70">
         <v>0.03</v>
       </c>
+      <c r="X70" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:55">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -8924,13 +11261,112 @@
       <c r="R71" t="s">
         <v>82</v>
       </c>
+      <c r="U71">
+        <v>344.7823273104698</v>
+      </c>
+      <c r="V71">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W71">
+        <v>1753.388987599996</v>
+      </c>
+      <c r="X71" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y71">
+        <v>344.7823273104698</v>
+      </c>
+      <c r="Z71">
+        <v>326.7823273104698</v>
+      </c>
+      <c r="AA71">
+        <v>18</v>
+      </c>
+      <c r="AB71">
+        <v>18</v>
+      </c>
+      <c r="AC71">
+        <v>438</v>
+      </c>
+      <c r="AD71">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0.1670675405657297</v>
+      </c>
+      <c r="AH71">
+        <v>0.1670675405657297</v>
+      </c>
+      <c r="AI71">
+        <v>0.1583454701694846</v>
+      </c>
+      <c r="AK71">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AL71">
+        <v>220.1789472797442</v>
+      </c>
+      <c r="AN71">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO71">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP71">
+        <v>549.6920444315269</v>
+      </c>
+      <c r="AQ71">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR71">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS71">
+        <v>1648.901323576857</v>
+      </c>
+      <c r="AT71">
+        <v>34.91296038251956</v>
+      </c>
+      <c r="AU71">
+        <v>224.8192448621507</v>
+      </c>
+      <c r="AV71">
+        <v>4.640297582406499</v>
+      </c>
+      <c r="AW71">
+        <v>177.6723000512094</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>-16.59457687080194</v>
+      </c>
+      <c r="BA71">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:55">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
@@ -8980,13 +11416,112 @@
       <c r="R72" t="s">
         <v>82</v>
       </c>
+      <c r="U72">
+        <v>347.7901518128196</v>
+      </c>
+      <c r="V72">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W72">
+        <v>1772.595983199993</v>
+      </c>
+      <c r="X72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y72">
+        <v>347.7901518128196</v>
+      </c>
+      <c r="Z72">
+        <v>329.7901518128196</v>
+      </c>
+      <c r="AA72">
+        <v>18</v>
+      </c>
+      <c r="AB72">
+        <v>18</v>
+      </c>
+      <c r="AC72">
+        <v>438</v>
+      </c>
+      <c r="AD72">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0.1685250104017878</v>
+      </c>
+      <c r="AH72">
+        <v>0.1685250104017878</v>
+      </c>
+      <c r="AI72">
+        <v>0.1598029400055427</v>
+      </c>
+      <c r="AK72">
+        <v>109.10934</v>
+      </c>
+      <c r="AL72">
+        <v>220.6808118128196</v>
+      </c>
+      <c r="AN72">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO72">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP72">
+        <v>549.6920444315269</v>
+      </c>
+      <c r="AQ72">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR72">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS72">
+        <v>1636.982242316473</v>
+      </c>
+      <c r="AT72">
+        <v>22.9715242290566</v>
+      </c>
+      <c r="AU72">
+        <v>224.5054716243451</v>
+      </c>
+      <c r="AV72">
+        <v>3.824659811525552</v>
+      </c>
+      <c r="AW72">
+        <v>181.8489</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>-13.56230000000001</v>
+      </c>
+      <c r="BA72">
+        <v>12.9615</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:55">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="s">
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>57</v>
@@ -9035,6 +11570,105 @@
       </c>
       <c r="R73" t="s">
         <v>83</v>
+      </c>
+      <c r="U73">
+        <v>418.6846936943224</v>
+      </c>
+      <c r="V73">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W73">
+        <v>1312.511116499998</v>
+      </c>
+      <c r="X73" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y73">
+        <v>418.6846936943224</v>
+      </c>
+      <c r="Z73">
+        <v>400.6846936943224</v>
+      </c>
+      <c r="AA73">
+        <v>18</v>
+      </c>
+      <c r="AB73">
+        <v>18</v>
+      </c>
+      <c r="AC73">
+        <v>438</v>
+      </c>
+      <c r="AD73">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0.2028776317906774</v>
+      </c>
+      <c r="AH73">
+        <v>0.2028776317906774</v>
+      </c>
+      <c r="AI73">
+        <v>0.1941555613944323</v>
+      </c>
+      <c r="AK73">
+        <v>121.1359295774175</v>
+      </c>
+      <c r="AL73">
+        <v>279.548764116905</v>
+      </c>
+      <c r="AN73">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO73">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP73">
+        <v>549.6920444315281</v>
+      </c>
+      <c r="AQ73">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AR73">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS73">
+        <v>1590.590509650287</v>
+      </c>
+      <c r="AT73">
+        <v>3.304060741572887E-15</v>
+      </c>
+      <c r="AU73">
+        <v>279.548764116905</v>
+      </c>
+      <c r="AV73">
+        <v>2.502601113489304E-16</v>
+      </c>
+      <c r="AW73">
+        <v>201.8932159623624</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/experiments/thesis_topic1/6h-bat-12months-0.6dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-12months-0.6dc.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_topic1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C286AA-A59D-4187-AE89-AC7FD8C2DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$73</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="156">
   <si>
     <t>status</t>
   </si>
@@ -283,6 +274,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -298,6 +292,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -328,6 +328,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -373,6 +382,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -388,6 +400,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -403,6 +418,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -418,6 +436,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -433,6 +454,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -442,9 +466,15 @@
     <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.8-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -452,21 +482,17 @@
   </si>
   <si>
     <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>flex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -474,15 +500,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,14 +551,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -586,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,27 +629,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,24 +663,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -863,17 +838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:BD79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1040,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1096,22 +1068,22 @@
         <v>81</v>
       </c>
       <c r="U2">
-        <v>369.74712287332039</v>
+        <v>369.7471228733204</v>
       </c>
       <c r="V2">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W2">
-        <v>3907.9865249999998</v>
+        <v>3907.986525</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
       </c>
       <c r="Y2">
-        <v>369.74712287332039</v>
+        <v>369.7471228733204</v>
       </c>
       <c r="Z2">
-        <v>351.74712287332039</v>
+        <v>351.7471228733204</v>
       </c>
       <c r="AA2">
         <v>18</v>
@@ -1138,28 +1110,28 @@
         <v>0.1550655154509549</v>
       </c>
       <c r="AI2">
-        <v>0.14751662837260029</v>
+        <v>0.1475166283726003</v>
       </c>
       <c r="AK2">
         <v>100.8328589311581</v>
       </c>
       <c r="AL2">
-        <v>250.91426394216231</v>
+        <v>250.9142639421623</v>
       </c>
       <c r="AN2">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO2">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP2">
-        <v>560.51296587206298</v>
+        <v>560.512965872063</v>
       </c>
       <c r="AQ2">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AR2">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS2">
         <v>1803.658232962267</v>
@@ -1168,13 +1140,13 @@
         <v>9.612031059047138E-15</v>
       </c>
       <c r="AU2">
-        <v>250.91426394216231</v>
+        <v>250.9142639421623</v>
       </c>
       <c r="AV2">
-        <v>8.9369963530434902E-16</v>
+        <v>8.93699635304349E-16</v>
       </c>
       <c r="AW2">
-        <v>168.05476488526349</v>
+        <v>168.0547648852635</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -1195,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:55">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1251,22 +1223,22 @@
         <v>81</v>
       </c>
       <c r="U3">
-        <v>382.84371119539429</v>
+        <v>382.8437111953943</v>
       </c>
       <c r="V3">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W3">
-        <v>4394.8239284000001</v>
+        <v>4394.8239284</v>
       </c>
       <c r="X3" t="s">
         <v>85</v>
       </c>
       <c r="Y3">
-        <v>382.84371119539429</v>
+        <v>382.8437111953943</v>
       </c>
       <c r="Z3">
-        <v>364.84371119539429</v>
+        <v>364.8437111953943</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -1299,37 +1271,37 @@
         <v>116.66447784</v>
       </c>
       <c r="AL3">
-        <v>248.17923335539439</v>
+        <v>248.1792333553944</v>
       </c>
       <c r="AN3">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO3">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP3">
-        <v>560.51296587206298</v>
+        <v>560.512965872063</v>
       </c>
       <c r="AQ3">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AR3">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS3">
-        <v>1811.6311611285739</v>
+        <v>1811.631161128574</v>
       </c>
       <c r="AT3">
-        <v>6.8174803889307718</v>
+        <v>6.817480388930772</v>
       </c>
       <c r="AU3">
-        <v>248.97941130104141</v>
+        <v>248.9794113010414</v>
       </c>
       <c r="AV3">
-        <v>0.80017794564704392</v>
+        <v>0.8001779456470439</v>
       </c>
       <c r="AW3">
-        <v>194.44079640000001</v>
+        <v>194.4407964</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1338,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-9.4614995999999962</v>
+        <v>-9.461499599999996</v>
       </c>
       <c r="BA3">
         <v>25.5533964</v>
@@ -1350,12 +1322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:55">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1403,7 +1375,7 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
         <v>83</v>
@@ -1411,8 +1383,107 @@
       <c r="T4">
         <v>0.03</v>
       </c>
+      <c r="U4">
+        <v>375.3355520405782</v>
+      </c>
+      <c r="V4">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W4">
+        <v>4527.720469499996</v>
+      </c>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4">
+        <v>375.3355520405782</v>
+      </c>
+      <c r="Z4">
+        <v>357.3355520405782</v>
+      </c>
+      <c r="AA4">
+        <v>18</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>438</v>
+      </c>
+      <c r="AD4">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.1574092054914555</v>
+      </c>
+      <c r="AH4">
+        <v>0.1574092054914555</v>
+      </c>
+      <c r="AI4">
+        <v>0.149860318413101</v>
+      </c>
+      <c r="AK4">
+        <v>108.5332470672367</v>
+      </c>
+      <c r="AL4">
+        <v>248.8023049733416</v>
+      </c>
+      <c r="AN4">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AO4">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AP4">
+        <v>560.5129658720633</v>
+      </c>
+      <c r="AQ4">
+        <v>2384.457445603156</v>
+      </c>
+      <c r="AR4">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AS4">
+        <v>1813.734145138265</v>
+      </c>
+      <c r="AT4">
+        <v>9.050269962971562</v>
+      </c>
+      <c r="AU4">
+        <v>250.037801237268</v>
+      </c>
+      <c r="AV4">
+        <v>1.235496263926428</v>
+      </c>
+      <c r="AW4">
+        <v>180.8887451120611</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>-12.16045695232945</v>
+      </c>
+      <c r="BA4">
+        <v>12.00134511206106</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:55">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1468,22 +1539,22 @@
         <v>81</v>
       </c>
       <c r="U5">
-        <v>378.86612867956887</v>
+        <v>378.8661286795689</v>
       </c>
       <c r="V5">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W5">
-        <v>4759.7938948000001</v>
+        <v>4759.7938948</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5">
-        <v>378.86612867956887</v>
+        <v>378.8661286795689</v>
       </c>
       <c r="Z5">
-        <v>360.86612867956887</v>
+        <v>360.8661286795689</v>
       </c>
       <c r="AA5">
         <v>18</v>
@@ -1504,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.15888986795641211</v>
+        <v>0.1588898679564121</v>
       </c>
       <c r="AH5">
-        <v>0.15888986795641211</v>
+        <v>0.1588898679564121</v>
       </c>
       <c r="AI5">
         <v>0.1513409808780575</v>
@@ -1516,34 +1587,34 @@
         <v>110.8939531571033</v>
       </c>
       <c r="AL5">
-        <v>249.97217552246559</v>
+        <v>249.9721755224656</v>
       </c>
       <c r="AN5">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO5">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP5">
-        <v>560.51296587206207</v>
+        <v>560.5129658720621</v>
       </c>
       <c r="AQ5">
-        <v>2384.4574456031542</v>
+        <v>2384.457445603154</v>
       </c>
       <c r="AR5">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS5">
-        <v>1809.6506542619029</v>
+        <v>1809.650654261903</v>
       </c>
       <c r="AT5">
-        <v>5.2701575035956774</v>
+        <v>5.270157503595677</v>
       </c>
       <c r="AU5">
         <v>250.577624088389</v>
       </c>
       <c r="AV5">
-        <v>0.60544856592340379</v>
+        <v>0.6054485659234038</v>
       </c>
       <c r="AW5">
         <v>184.8232552618388</v>
@@ -1555,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>-11.327159598491241</v>
+        <v>-11.32715959849124</v>
       </c>
       <c r="BA5">
-        <v>17.660444161520939</v>
+        <v>17.66044416152094</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1567,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:55">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1623,22 +1694,22 @@
         <v>81</v>
       </c>
       <c r="U6">
-        <v>378.94671068837192</v>
+        <v>378.9467106883719</v>
       </c>
       <c r="V6">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W6">
-        <v>4378.4062812000002</v>
+        <v>4378.4062812</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y6">
-        <v>378.94671068837192</v>
+        <v>378.9467106883719</v>
       </c>
       <c r="Z6">
-        <v>360.94671068837192</v>
+        <v>360.9467106883719</v>
       </c>
       <c r="AA6">
         <v>18</v>
@@ -1665,7 +1736,7 @@
         <v>0.1589236626500232</v>
       </c>
       <c r="AI6">
-        <v>0.15137477557166859</v>
+        <v>0.1513747755716686</v>
       </c>
       <c r="AK6">
         <v>109.33908</v>
@@ -1674,37 +1745,37 @@
         <v>251.6076306883719</v>
       </c>
       <c r="AN6">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO6">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP6">
-        <v>560.51296587206298</v>
+        <v>560.512965872063</v>
       </c>
       <c r="AQ6">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AR6">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS6">
         <v>1810.54876945511</v>
       </c>
       <c r="AT6">
-        <v>6.6276130528114336</v>
+        <v>6.627613052811434</v>
       </c>
       <c r="AU6">
-        <v>252.59516199741239</v>
+        <v>252.5951619974124</v>
       </c>
       <c r="AV6">
-        <v>0.98753130904045439</v>
+        <v>0.9875313090404544</v>
       </c>
       <c r="AW6">
-        <v>182.23179999999999</v>
+        <v>182.2318</v>
       </c>
       <c r="AX6">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AY6">
         <v>1.204707892733915E-15</v>
@@ -1713,7 +1784,7 @@
         <v>-15.756</v>
       </c>
       <c r="BA6">
-        <v>16.221599999999999</v>
+        <v>16.2216</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -1722,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:55">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1778,22 +1849,22 @@
         <v>82</v>
       </c>
       <c r="U7">
-        <v>457.06360650159212</v>
+        <v>457.0636065015921</v>
       </c>
       <c r="V7">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W7">
-        <v>2294.9459959000001</v>
+        <v>2294.9459959</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y7">
-        <v>457.06360650159212</v>
+        <v>457.0636065015921</v>
       </c>
       <c r="Z7">
-        <v>439.06360650159212</v>
+        <v>439.0636065015921</v>
       </c>
       <c r="AA7">
         <v>18</v>
@@ -1814,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.19166085203798319</v>
+        <v>0.1916608520379832</v>
       </c>
       <c r="AH7">
-        <v>0.19166085203798319</v>
+        <v>0.1916608520379832</v>
       </c>
       <c r="AI7">
         <v>0.1841128974697131</v>
@@ -1826,34 +1897,34 @@
         <v>121.7518385847668</v>
       </c>
       <c r="AL7">
-        <v>317.31176791682532</v>
+        <v>317.3117679168253</v>
       </c>
       <c r="AN7">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO7">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP7">
-        <v>560.80755304715922</v>
+        <v>560.8075530471592</v>
       </c>
       <c r="AQ7">
-        <v>2384.7520327782509</v>
+        <v>2384.752032778251</v>
       </c>
       <c r="AR7">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS7">
         <v>1781.577252095055</v>
       </c>
       <c r="AT7">
-        <v>3.4446395315966541E-15</v>
+        <v>3.444639531596654E-15</v>
       </c>
       <c r="AU7">
-        <v>317.31176791682532</v>
+        <v>317.3117679168253</v>
       </c>
       <c r="AV7">
-        <v>2.5844039513487139E-16</v>
+        <v>2.584403951348714E-16</v>
       </c>
       <c r="AW7">
         <v>202.9197309746113</v>
@@ -1877,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:55">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1933,22 +2004,22 @@
         <v>81</v>
       </c>
       <c r="U8">
-        <v>366.76207448894797</v>
+        <v>366.762074488948</v>
       </c>
       <c r="V8">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W8">
-        <v>4088.9688424000001</v>
+        <v>4088.9688424</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y8">
-        <v>366.76207448894797</v>
+        <v>366.762074488948</v>
       </c>
       <c r="Z8">
-        <v>348.76207448894797</v>
+        <v>348.762074488948</v>
       </c>
       <c r="AA8">
         <v>18</v>
@@ -1960,7 +2031,7 @@
         <v>438</v>
       </c>
       <c r="AD8">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1969,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.14650266466697379</v>
+        <v>0.1465026646669738</v>
       </c>
       <c r="AH8">
-        <v>0.14650266466697379</v>
+        <v>0.1465026646669738</v>
       </c>
       <c r="AI8">
-        <v>0.13931258655521689</v>
+        <v>0.1393125865552169</v>
       </c>
       <c r="AK8">
         <v>101.3324400000001</v>
@@ -1984,40 +2055,40 @@
         <v>247.4296344889479</v>
       </c>
       <c r="AN8">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO8">
         <v>1897.080720803875</v>
       </c>
       <c r="AP8">
-        <v>606.36913331763571</v>
+        <v>606.3691333176357</v>
       </c>
       <c r="AQ8">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AR8">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS8">
         <v>1780.703038713252</v>
       </c>
       <c r="AT8">
-        <v>7.7268547595497313E-15</v>
+        <v>7.726854759549731E-15</v>
       </c>
       <c r="AU8">
         <v>247.4296344889479</v>
       </c>
       <c r="AV8">
-        <v>8.2485681850189589E-16</v>
+        <v>8.248568185018959E-16</v>
       </c>
       <c r="AW8">
-        <v>168.88740000000021</v>
+        <v>168.8874000000002</v>
       </c>
       <c r="AX8">
-        <v>8.8817841970012523E-16</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="AY8">
-        <v>1.5058904790967871E-16</v>
+        <v>1.505890479096787E-16</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2032,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:55">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2088,22 +2159,22 @@
         <v>81</v>
       </c>
       <c r="U9">
-        <v>372.82084374197808</v>
+        <v>372.8208437419781</v>
       </c>
       <c r="V9">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W9">
-        <v>4662.5127017000004</v>
+        <v>4662.5127017</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y9">
-        <v>372.82084374197808</v>
+        <v>372.8208437419781</v>
       </c>
       <c r="Z9">
-        <v>354.82084374197808</v>
+        <v>354.8208437419781</v>
       </c>
       <c r="AA9">
         <v>18</v>
@@ -2115,7 +2186,7 @@
         <v>438</v>
       </c>
       <c r="AD9">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2124,22 +2195,22 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.14892283267755141</v>
+        <v>0.1489228326775514</v>
       </c>
       <c r="AH9">
-        <v>0.14892283267755141</v>
+        <v>0.1489228326775514</v>
       </c>
       <c r="AI9">
-        <v>0.14173275456579451</v>
+        <v>0.1417327545657945</v>
       </c>
       <c r="AK9">
-        <v>108.40048674000001</v>
+        <v>108.40048674</v>
       </c>
       <c r="AL9">
         <v>246.4203570019782</v>
       </c>
       <c r="AN9">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO9">
         <v>1897.080720803875</v>
@@ -2148,10 +2219,10 @@
         <v>606.3691333176364</v>
       </c>
       <c r="AQ9">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AR9">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS9">
         <v>1792.391637403399</v>
@@ -2160,13 +2231,13 @@
         <v>11.09948294624148</v>
       </c>
       <c r="AU9">
-        <v>247.69958831838031</v>
+        <v>247.6995883183803</v>
       </c>
       <c r="AV9">
         <v>1.27923131640217</v>
       </c>
       <c r="AW9">
-        <v>180.66747789999999</v>
+        <v>180.6674779</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2175,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>-14.012924300000011</v>
+        <v>-14.01292430000001</v>
       </c>
       <c r="BA9">
         <v>13.8955929</v>
@@ -2187,12 +2258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:55">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
@@ -2240,7 +2311,7 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
         <v>83</v>
@@ -2248,8 +2319,107 @@
       <c r="T10">
         <v>0.03</v>
       </c>
+      <c r="U10">
+        <v>374.0658779246776</v>
+      </c>
+      <c r="V10">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="W10">
+        <v>4414.738894499998</v>
+      </c>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10">
+        <v>374.0658779246776</v>
+      </c>
+      <c r="Z10">
+        <v>356.0658779246776</v>
+      </c>
+      <c r="AA10">
+        <v>18</v>
+      </c>
+      <c r="AB10">
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <v>438</v>
+      </c>
+      <c r="AD10">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.1494201600678522</v>
+      </c>
+      <c r="AH10">
+        <v>0.1494201600678522</v>
+      </c>
+      <c r="AI10">
+        <v>0.1422300819560954</v>
+      </c>
+      <c r="AK10">
+        <v>109.4085327590337</v>
+      </c>
+      <c r="AL10">
+        <v>246.6573451656439</v>
+      </c>
+      <c r="AN10">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AO10">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AP10">
+        <v>606.3691333176367</v>
+      </c>
+      <c r="AQ10">
+        <v>2503.449854121512</v>
+      </c>
+      <c r="AR10">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AS10">
+        <v>1791.223310010178</v>
+      </c>
+      <c r="AT10">
+        <v>9.941186929991098</v>
+      </c>
+      <c r="AU10">
+        <v>247.9974574669752</v>
+      </c>
+      <c r="AV10">
+        <v>1.340112301331243</v>
+      </c>
+      <c r="AW10">
+        <v>182.3475545983895</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>-12.25404550913242</v>
+      </c>
+      <c r="BA10">
+        <v>13.46015459838951</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:55">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2305,22 +2475,22 @@
         <v>81</v>
       </c>
       <c r="U11">
-        <v>371.33892825069182</v>
+        <v>371.3389282506918</v>
       </c>
       <c r="V11">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W11">
-        <v>3579.2097094999999</v>
+        <v>3579.2097095</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y11">
-        <v>371.33892825069182</v>
+        <v>371.3389282506918</v>
       </c>
       <c r="Z11">
-        <v>353.33892825069182</v>
+        <v>353.3389282506918</v>
       </c>
       <c r="AA11">
         <v>18</v>
@@ -2332,7 +2502,7 @@
         <v>438</v>
       </c>
       <c r="AD11">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2341,49 +2511,49 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.14833088333658631</v>
+        <v>0.1483308833365863</v>
       </c>
       <c r="AH11">
-        <v>0.14833088333658631</v>
+        <v>0.1483308833365863</v>
       </c>
       <c r="AI11">
-        <v>0.14114080522482941</v>
+        <v>0.1411408052248294</v>
       </c>
       <c r="AK11">
         <v>106.5589862281232</v>
       </c>
       <c r="AL11">
-        <v>246.77994202256869</v>
+        <v>246.7799420225687</v>
       </c>
       <c r="AN11">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO11">
         <v>1897.080720803875</v>
       </c>
       <c r="AP11">
-        <v>606.36913331763697</v>
+        <v>606.369133317637</v>
       </c>
       <c r="AQ11">
-        <v>2503.4498541215121</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AR11">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS11">
-        <v>1790.1862910015359</v>
+        <v>1790.186291001536</v>
       </c>
       <c r="AT11">
-        <v>9.0782194960506288</v>
+        <v>9.078219496050629</v>
       </c>
       <c r="AU11">
-        <v>247.91347051721951</v>
+        <v>247.9134705172195</v>
       </c>
       <c r="AV11">
         <v>1.133528494650889</v>
       </c>
       <c r="AW11">
-        <v>177.59831038020519</v>
+        <v>177.5983103802052</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2395,7 +2565,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BA11">
-        <v>11.791396142640981</v>
+        <v>11.79139614264098</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2404,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:55">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2460,22 +2630,22 @@
         <v>81</v>
       </c>
       <c r="U12">
-        <v>376.06032172331459</v>
+        <v>376.0603217233146</v>
       </c>
       <c r="V12">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W12">
         <v>3531.6065239</v>
       </c>
       <c r="X12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y12">
-        <v>376.06032172331459</v>
+        <v>376.0603217233146</v>
       </c>
       <c r="Z12">
-        <v>358.06032172331459</v>
+        <v>358.0603217233146</v>
       </c>
       <c r="AA12">
         <v>18</v>
@@ -2487,7 +2657,7 @@
         <v>438</v>
       </c>
       <c r="AD12">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2496,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.15021683821794721</v>
+        <v>0.1502168382179472</v>
       </c>
       <c r="AH12">
-        <v>0.15021683821794721</v>
+        <v>0.1502168382179472</v>
       </c>
       <c r="AI12">
-        <v>0.14302676010619031</v>
+        <v>0.1430267601061903</v>
       </c>
       <c r="AK12">
         <v>109.55418</v>
@@ -2511,34 +2681,34 @@
         <v>248.5061417233147</v>
       </c>
       <c r="AN12">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO12">
         <v>1897.080720803875</v>
       </c>
       <c r="AP12">
-        <v>606.36913331763719</v>
+        <v>606.3691333176372</v>
       </c>
       <c r="AQ12">
-        <v>2503.4498541215121</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AR12">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS12">
-        <v>1788.5929631147401</v>
+        <v>1788.59296311474</v>
       </c>
       <c r="AT12">
-        <v>7.3250187915770439</v>
+        <v>7.325018791577044</v>
       </c>
       <c r="AU12">
-        <v>249.57933713750859</v>
+        <v>249.5793371375086</v>
       </c>
       <c r="AV12">
-        <v>1.0731954141939799</v>
+        <v>1.07319541419398</v>
       </c>
       <c r="AW12">
-        <v>182.59030000000001</v>
+        <v>182.5903</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2547,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>-16.020199999999999</v>
+        <v>-16.0202</v>
       </c>
       <c r="BA12">
-        <v>14.349299999999999</v>
+        <v>14.3493</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -2559,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:55">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2615,22 +2785,22 @@
         <v>82</v>
       </c>
       <c r="U13">
-        <v>447.27786401694817</v>
+        <v>447.2778640169482</v>
       </c>
       <c r="V13">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W13">
-        <v>2351.1236597000002</v>
+        <v>2351.1236597</v>
       </c>
       <c r="X13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y13">
-        <v>447.27786401694817</v>
+        <v>447.2778640169482</v>
       </c>
       <c r="Z13">
-        <v>429.27786401694817</v>
+        <v>429.2778640169482</v>
       </c>
       <c r="AA13">
         <v>18</v>
@@ -2642,7 +2812,7 @@
         <v>438</v>
       </c>
       <c r="AD13">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2657,16 +2827,16 @@
         <v>0.1786488563467159</v>
       </c>
       <c r="AI13">
-        <v>0.17145941176888399</v>
+        <v>0.171459411768884</v>
       </c>
       <c r="AK13">
-        <v>115.01397926650159</v>
+        <v>115.0139792665016</v>
       </c>
       <c r="AL13">
-        <v>314.26388475044661</v>
+        <v>314.2638847504466</v>
       </c>
       <c r="AN13">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO13">
         <v>1897.080720803875</v>
@@ -2675,25 +2845,25 @@
         <v>606.5897373427249</v>
       </c>
       <c r="AQ13">
-        <v>2503.6704581466001</v>
+        <v>2503.6704581466</v>
       </c>
       <c r="AR13">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS13">
-        <v>1759.1867965501831</v>
+        <v>1759.186796550183</v>
       </c>
       <c r="AT13">
-        <v>2.6972593616498029E-15</v>
+        <v>2.697259361649803E-15</v>
       </c>
       <c r="AU13">
-        <v>314.26388475044661</v>
+        <v>314.2638847504466</v>
       </c>
       <c r="AV13">
-        <v>2.3012540886649951E-16</v>
+        <v>2.301254088664995E-16</v>
       </c>
       <c r="AW13">
-        <v>191.68996544416939</v>
+        <v>191.6899654441694</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2714,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:55">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2770,22 +2940,22 @@
         <v>81</v>
       </c>
       <c r="U14">
-        <v>307.07330443314282</v>
+        <v>307.0733044331428</v>
       </c>
       <c r="V14">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W14">
-        <v>4277.0106831000003</v>
+        <v>4277.0106831</v>
       </c>
       <c r="X14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y14">
-        <v>307.07330443314282</v>
+        <v>307.0733044331428</v>
       </c>
       <c r="Z14">
-        <v>289.07330443314282</v>
+        <v>289.0733044331428</v>
       </c>
       <c r="AA14">
         <v>18</v>
@@ -2797,7 +2967,7 @@
         <v>438</v>
       </c>
       <c r="AD14">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2806,43 +2976,43 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.12961425337957791</v>
+        <v>0.1296142533795779</v>
       </c>
       <c r="AH14">
-        <v>0.12961425337957791</v>
+        <v>0.1296142533795779</v>
       </c>
       <c r="AI14">
         <v>0.1220165347659745</v>
       </c>
       <c r="AK14">
-        <v>91.657318078610018</v>
+        <v>91.65731807861002</v>
       </c>
       <c r="AL14">
-        <v>197.41598635453281</v>
+        <v>197.4159863545328</v>
       </c>
       <c r="AN14">
         <v>61.60134453781513</v>
       </c>
       <c r="AO14">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP14">
-        <v>542.10015160349815</v>
+        <v>542.1001516034981</v>
       </c>
       <c r="AQ14">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR14">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS14">
-        <v>1476.7454403443051</v>
+        <v>1476.745440344305</v>
       </c>
       <c r="AT14">
-        <v>27.690309605312802</v>
+        <v>27.6903096053128</v>
       </c>
       <c r="AU14">
-        <v>201.70650019121021</v>
+        <v>201.7065001912102</v>
       </c>
       <c r="AV14">
         <v>4.290513836677432</v>
@@ -2869,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:55">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2925,22 +3095,22 @@
         <v>81</v>
       </c>
       <c r="U15">
-        <v>323.48747769460817</v>
+        <v>323.4874776946082</v>
       </c>
       <c r="V15">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W15">
         <v>4730.0803071</v>
       </c>
       <c r="X15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y15">
-        <v>323.48747769460817</v>
+        <v>323.4874776946082</v>
       </c>
       <c r="Z15">
-        <v>305.48747769460817</v>
+        <v>305.4874776946082</v>
       </c>
       <c r="AA15">
         <v>18</v>
@@ -2952,7 +3122,7 @@
         <v>438</v>
       </c>
       <c r="AD15">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2967,52 +3137,52 @@
         <v>0.1365426016971083</v>
       </c>
       <c r="AI15">
-        <v>0.12894488308350491</v>
+        <v>0.1289448830835049</v>
       </c>
       <c r="AK15">
         <v>108.8444262</v>
       </c>
       <c r="AL15">
-        <v>196.64305149460819</v>
+        <v>196.6430514946082</v>
       </c>
       <c r="AN15">
         <v>61.60134453781513</v>
       </c>
       <c r="AO15">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP15">
-        <v>542.10015160349872</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AQ15">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR15">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS15">
         <v>1493.258259200285</v>
       </c>
       <c r="AT15">
-        <v>43.456294896132697</v>
+        <v>43.4562948961327</v>
       </c>
       <c r="AU15">
-        <v>202.54233631715081</v>
+        <v>202.5423363171508</v>
       </c>
       <c r="AV15">
-        <v>5.8992848225426133</v>
+        <v>5.899284822542613</v>
       </c>
       <c r="AW15">
         <v>181.407377</v>
       </c>
       <c r="AX15">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY15">
         <v>6.023539463669574E-16</v>
       </c>
       <c r="AZ15">
-        <v>-25.145092699999999</v>
+        <v>-25.1450927</v>
       </c>
       <c r="BA15">
         <v>16.1165229</v>
@@ -3024,12 +3194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:55">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -3077,7 +3247,7 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
         <v>83</v>
@@ -3085,8 +3255,107 @@
       <c r="T16">
         <v>0.03</v>
       </c>
+      <c r="U16">
+        <v>322.9018498651126</v>
+      </c>
+      <c r="V16">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W16">
+        <v>4843.764928599994</v>
+      </c>
+      <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16">
+        <v>322.9018498651126</v>
+      </c>
+      <c r="Z16">
+        <v>304.9018498651126</v>
+      </c>
+      <c r="AA16">
+        <v>18</v>
+      </c>
+      <c r="AB16">
+        <v>18</v>
+      </c>
+      <c r="AC16">
+        <v>438</v>
+      </c>
+      <c r="AD16">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.1362954108381748</v>
+      </c>
+      <c r="AH16">
+        <v>0.1362954108381748</v>
+      </c>
+      <c r="AI16">
+        <v>0.1286976922245714</v>
+      </c>
+      <c r="AK16">
+        <v>108.4424014363575</v>
+      </c>
+      <c r="AL16">
+        <v>196.4594484287551</v>
+      </c>
+      <c r="AN16">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO16">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP16">
+        <v>542.1001516034984</v>
+      </c>
+      <c r="AQ16">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AR16">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS16">
+        <v>1488.722905322034</v>
+      </c>
+      <c r="AT16">
+        <v>38.84736026785233</v>
+      </c>
+      <c r="AU16">
+        <v>202.1180921047981</v>
+      </c>
+      <c r="AV16">
+        <v>5.658643676043043</v>
+      </c>
+      <c r="AW16">
+        <v>180.7373357272626</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>-11.58389909546533</v>
+      </c>
+      <c r="BA16">
+        <v>11.84993572726258</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:55">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3145,13 +3414,13 @@
         <v>323.5639857816343</v>
       </c>
       <c r="V17">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W17">
         <v>4389.6966579</v>
       </c>
       <c r="X17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y17">
         <v>323.5639857816343</v>
@@ -3169,7 +3438,7 @@
         <v>438</v>
       </c>
       <c r="AD17">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3178,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.13657489541471321</v>
+        <v>0.1365748954147132</v>
       </c>
       <c r="AH17">
-        <v>0.13657489541471321</v>
+        <v>0.1365748954147132</v>
       </c>
       <c r="AI17">
-        <v>0.12897717680110979</v>
+        <v>0.1289771768011098</v>
       </c>
       <c r="AK17">
         <v>108.6235597207575</v>
@@ -3196,31 +3465,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AO17">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP17">
-        <v>542.10015160349883</v>
+        <v>542.1001516034988</v>
       </c>
       <c r="AQ17">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR17">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS17">
-        <v>1492.4874829231569</v>
+        <v>1492.487482923157</v>
       </c>
       <c r="AT17">
-        <v>42.589087910322021</v>
+        <v>42.58908791032202</v>
       </c>
       <c r="AU17">
-        <v>202.57726065989169</v>
+        <v>202.5772606598917</v>
       </c>
       <c r="AV17">
-        <v>5.6368345990148816</v>
+        <v>5.636834599014882</v>
       </c>
       <c r="AW17">
-        <v>181.03926620126251</v>
+        <v>181.0392662012625</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -3232,7 +3501,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BA17">
-        <v>12.876906861902301</v>
+        <v>12.8769068619023</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -3241,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:55">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3297,22 +3566,22 @@
         <v>81</v>
       </c>
       <c r="U18">
-        <v>325.04907683911199</v>
+        <v>325.049076839112</v>
       </c>
       <c r="V18">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W18">
-        <v>4324.2123419999998</v>
+        <v>4324.212342</v>
       </c>
       <c r="X18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y18">
-        <v>325.04907683911199</v>
+        <v>325.049076839112</v>
       </c>
       <c r="Z18">
-        <v>307.04907683911199</v>
+        <v>307.049076839112</v>
       </c>
       <c r="AA18">
         <v>18</v>
@@ -3324,7 +3593,7 @@
         <v>438</v>
       </c>
       <c r="AD18">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3339,10 +3608,10 @@
         <v>0.1372017456352852</v>
       </c>
       <c r="AI18">
-        <v>0.12960402702168169</v>
+        <v>0.1296040270216817</v>
       </c>
       <c r="AK18">
-        <v>108.79242000000001</v>
+        <v>108.79242</v>
       </c>
       <c r="AL18">
         <v>198.256656839112</v>
@@ -3351,31 +3620,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AO18">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP18">
-        <v>542.10015160349872</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AQ18">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR18">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS18">
-        <v>1487.4273876872139</v>
+        <v>1487.427387687214</v>
       </c>
       <c r="AT18">
-        <v>37.860647164700232</v>
+        <v>37.86064716470023</v>
       </c>
       <c r="AU18">
-        <v>203.91568142223269</v>
+        <v>203.9156814222327</v>
       </c>
       <c r="AV18">
-        <v>5.6590245831206696</v>
+        <v>5.65902458312067</v>
       </c>
       <c r="AW18">
-        <v>181.32069999999999</v>
+        <v>181.3207</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3387,7 +3656,7 @@
         <v>-17.4482</v>
       </c>
       <c r="BA18">
-        <v>16.199100000000001</v>
+        <v>16.1991</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -3396,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:55">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3452,22 +3721,22 @@
         <v>82</v>
       </c>
       <c r="U19">
-        <v>377.62252880403429</v>
+        <v>377.6225288040343</v>
       </c>
       <c r="V19">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W19">
         <v>2478.109398300001</v>
       </c>
       <c r="X19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y19">
-        <v>377.62252880403429</v>
+        <v>377.6225288040343</v>
       </c>
       <c r="Z19">
-        <v>359.62252880403429</v>
+        <v>359.6225288040343</v>
       </c>
       <c r="AA19">
         <v>18</v>
@@ -3479,7 +3748,7 @@
         <v>438</v>
       </c>
       <c r="AD19">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3488,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0.15938835173315191</v>
+        <v>0.1593883517331519</v>
       </c>
       <c r="AH19">
-        <v>0.15938835173315191</v>
+        <v>0.1593883517331519</v>
       </c>
       <c r="AI19">
         <v>0.1517908433422116</v>
@@ -3500,37 +3769,37 @@
         <v>104.4130096875969</v>
       </c>
       <c r="AL19">
-        <v>255.20951911643741</v>
+        <v>255.2095191164374</v>
       </c>
       <c r="AN19">
         <v>61.60134453781513</v>
       </c>
       <c r="AO19">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP19">
-        <v>542.16570536928407</v>
+        <v>542.1657053692841</v>
       </c>
       <c r="AQ19">
-        <v>2369.1977782432332</v>
+        <v>2369.197778243233</v>
       </c>
       <c r="AR19">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS19">
-        <v>1437.0634418282491</v>
+        <v>1437.063441828249</v>
       </c>
       <c r="AT19">
-        <v>7.9609455488418508</v>
+        <v>7.960945548841851</v>
       </c>
       <c r="AU19">
-        <v>255.97455229285589</v>
+        <v>255.9745522928559</v>
       </c>
       <c r="AV19">
-        <v>0.76503317641848789</v>
+        <v>0.7650331764184879</v>
       </c>
       <c r="AW19">
-        <v>174.02168281266151</v>
+        <v>174.0216828126615</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -3551,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:55">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3607,22 +3876,22 @@
         <v>81</v>
       </c>
       <c r="U20">
-        <v>313.92094401086331</v>
+        <v>313.9209440108633</v>
       </c>
       <c r="V20">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W20">
-        <v>5011.8718764999994</v>
+        <v>5011.871876499999</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y20">
-        <v>313.92094401086331</v>
+        <v>313.9209440108633</v>
       </c>
       <c r="Z20">
-        <v>295.92094401086331</v>
+        <v>295.9209440108633</v>
       </c>
       <c r="AA20">
         <v>18</v>
@@ -3634,7 +3903,7 @@
         <v>438</v>
       </c>
       <c r="AD20">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3649,49 +3918,49 @@
         <v>0.1209646441487479</v>
       </c>
       <c r="AI20">
-        <v>0.11402861889710959</v>
+        <v>0.1140286188971096</v>
       </c>
       <c r="AK20">
-        <v>87.444325554399981</v>
+        <v>87.44432555439998</v>
       </c>
       <c r="AL20">
-        <v>208.47661845646331</v>
+        <v>208.4766184564633</v>
       </c>
       <c r="AN20">
         <v>79.39423410906565</v>
       </c>
       <c r="AO20">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP20">
-        <v>693.40410998716936</v>
+        <v>693.4041099871694</v>
       </c>
       <c r="AQ20">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR20">
         <v>1094.388561628032</v>
       </c>
       <c r="AS20">
-        <v>1533.1682569729101</v>
+        <v>1533.16825697291</v>
       </c>
       <c r="AT20">
-        <v>7.6206913370226861</v>
+        <v>7.620691337022686</v>
       </c>
       <c r="AU20">
-        <v>209.63053392277899</v>
+        <v>209.630533922779</v>
       </c>
       <c r="AV20">
-        <v>1.1539154663157241</v>
+        <v>1.153915466315724</v>
       </c>
       <c r="AW20">
-        <v>145.74054259066659</v>
+        <v>145.7405425906666</v>
       </c>
       <c r="AX20">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY20">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -3706,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:55">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3762,22 +4031,22 @@
         <v>81</v>
       </c>
       <c r="U21">
-        <v>332.31968885824313</v>
+        <v>332.3196888582431</v>
       </c>
       <c r="V21">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W21">
         <v>5366.847184100001</v>
       </c>
       <c r="X21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y21">
-        <v>332.31968885824313</v>
+        <v>332.3196888582431</v>
       </c>
       <c r="Z21">
-        <v>314.31968885824313</v>
+        <v>314.3196888582431</v>
       </c>
       <c r="AA21">
         <v>18</v>
@@ -3789,7 +4058,7 @@
         <v>438</v>
       </c>
       <c r="AD21">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3804,25 +4073,25 @@
         <v>0.1280543196409632</v>
       </c>
       <c r="AI21">
-        <v>0.12111829438932489</v>
+        <v>0.1211182943893249</v>
       </c>
       <c r="AK21">
-        <v>110.24487480000001</v>
+        <v>110.2448748</v>
       </c>
       <c r="AL21">
-        <v>204.07481405824311</v>
+        <v>204.0748140582431</v>
       </c>
       <c r="AN21">
         <v>79.39423410906565</v>
       </c>
       <c r="AO21">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP21">
-        <v>693.40410998716982</v>
+        <v>693.4041099871698</v>
       </c>
       <c r="AQ21">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR21">
         <v>1094.388561628032</v>
@@ -3834,22 +4103,22 @@
         <v>16.54129000497899</v>
       </c>
       <c r="AU21">
-        <v>206.34786396502761</v>
+        <v>206.3478639650276</v>
       </c>
       <c r="AV21">
-        <v>2.2730499067844612</v>
+        <v>2.273049906784461</v>
       </c>
       <c r="AW21">
-        <v>183.74145799999999</v>
+        <v>183.741458</v>
       </c>
       <c r="AX21">
         <v>1.06581410364015E-14</v>
       </c>
       <c r="AY21">
-        <v>1.8070639346358538E-15</v>
+        <v>1.807063934635854E-15</v>
       </c>
       <c r="AZ21">
-        <v>-9.5456855999999988</v>
+        <v>-9.545685599999999</v>
       </c>
       <c r="BA21">
         <v>17.7250406</v>
@@ -3861,12 +4130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:55">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -3914,7 +4183,7 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
         <v>83</v>
@@ -3922,8 +4191,107 @@
       <c r="T22">
         <v>0.03</v>
       </c>
+      <c r="U22">
+        <v>330.4994472737546</v>
+      </c>
+      <c r="V22">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W22">
+        <v>5094.234424599999</v>
+      </c>
+      <c r="X22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22">
+        <v>330.4994472737546</v>
+      </c>
+      <c r="Z22">
+        <v>312.4994472737546</v>
+      </c>
+      <c r="AA22">
+        <v>18</v>
+      </c>
+      <c r="AB22">
+        <v>18</v>
+      </c>
+      <c r="AC22">
+        <v>438</v>
+      </c>
+      <c r="AD22">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0.1273515119756882</v>
+      </c>
+      <c r="AH22">
+        <v>0.1273515119756882</v>
+      </c>
+      <c r="AI22">
+        <v>0.1204155632639082</v>
+      </c>
+      <c r="AK22">
+        <v>108.0083796012768</v>
+      </c>
+      <c r="AL22">
+        <v>204.4910676724778</v>
+      </c>
+      <c r="AN22">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AO22">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AP22">
+        <v>693.4327480488541</v>
+      </c>
+      <c r="AQ22">
+        <v>2595.174899351395</v>
+      </c>
+      <c r="AR22">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AS22">
+        <v>1546.402600010636</v>
+      </c>
+      <c r="AT22">
+        <v>19.70210680455483</v>
+      </c>
+      <c r="AU22">
+        <v>207.1824074740166</v>
+      </c>
+      <c r="AV22">
+        <v>2.691339801538782</v>
+      </c>
+      <c r="AW22">
+        <v>180.0139660021279</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>-11.28105137567715</v>
+      </c>
+      <c r="BA22">
+        <v>12.42281216708905</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:55">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3979,22 +4347,22 @@
         <v>81</v>
       </c>
       <c r="U23">
-        <v>331.15752163617981</v>
+        <v>331.1575216361798</v>
       </c>
       <c r="V23">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W23">
         <v>4460.102020899998</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y23">
-        <v>331.15752163617981</v>
+        <v>331.1575216361798</v>
       </c>
       <c r="Z23">
-        <v>313.15752163617981</v>
+        <v>313.1575216361798</v>
       </c>
       <c r="AA23">
         <v>18</v>
@@ -4006,7 +4374,7 @@
         <v>438</v>
       </c>
       <c r="AD23">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4021,10 +4389,10 @@
         <v>0.1276064962410266</v>
       </c>
       <c r="AI23">
-        <v>0.12067047098938841</v>
+        <v>0.1206704709893884</v>
       </c>
       <c r="AK23">
-        <v>108.70139359810121</v>
+        <v>108.7013935981012</v>
       </c>
       <c r="AL23">
         <v>204.4561280380785</v>
@@ -4033,28 +4401,28 @@
         <v>79.39423410906565</v>
       </c>
       <c r="AO23">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP23">
-        <v>693.40410998716993</v>
+        <v>693.4041099871699</v>
       </c>
       <c r="AQ23">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR23">
         <v>1094.388561628032</v>
       </c>
       <c r="AS23">
-        <v>1541.4762313279359</v>
+        <v>1541.476231327936</v>
       </c>
       <c r="AT23">
-        <v>14.857391203200789</v>
+        <v>14.85739120320079</v>
       </c>
       <c r="AU23">
-        <v>206.67883812622051</v>
+        <v>206.6788381262205</v>
       </c>
       <c r="AV23">
-        <v>2.2227100881419219</v>
+        <v>2.222710088141922</v>
       </c>
       <c r="AW23">
         <v>181.1689893301687</v>
@@ -4066,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>-10.781352368211071</v>
+        <v>-10.78135236821107</v>
       </c>
       <c r="BA23">
-        <v>12.281589330168689</v>
+        <v>12.28158933016869</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -4078,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:55">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4137,13 +4505,13 @@
         <v>332.2249420140559</v>
       </c>
       <c r="V24">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W24">
-        <v>4232.9484668999976</v>
+        <v>4232.948466899998</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y24">
         <v>332.2249420140559</v>
@@ -4161,7 +4529,7 @@
         <v>438</v>
       </c>
       <c r="AD24">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -4170,61 +4538,61 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.12801781039075241</v>
+        <v>0.1280178103907524</v>
       </c>
       <c r="AH24">
-        <v>0.12801781039075241</v>
+        <v>0.1280178103907524</v>
       </c>
       <c r="AI24">
-        <v>0.12108178513911411</v>
+        <v>0.1210817851391141</v>
       </c>
       <c r="AK24">
-        <v>108.59238000000001</v>
+        <v>108.59238</v>
       </c>
       <c r="AL24">
-        <v>205.63256201405591</v>
+        <v>205.6325620140559</v>
       </c>
       <c r="AN24">
         <v>79.39423410906565</v>
       </c>
       <c r="AO24">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP24">
-        <v>693.40410998716902</v>
+        <v>693.404109987169</v>
       </c>
       <c r="AQ24">
-        <v>2595.1462612897089</v>
+        <v>2595.146261289709</v>
       </c>
       <c r="AR24">
         <v>1094.388561628032</v>
       </c>
       <c r="AS24">
-        <v>1546.3773788495639</v>
+        <v>1546.377378849564</v>
       </c>
       <c r="AT24">
-        <v>19.621927683442461</v>
+        <v>19.62192768344246</v>
       </c>
       <c r="AU24">
-        <v>208.49417319541769</v>
+        <v>208.4941731954177</v>
       </c>
       <c r="AV24">
-        <v>2.8616111813618339</v>
+        <v>2.861611181361834</v>
       </c>
       <c r="AW24">
         <v>180.9873</v>
       </c>
       <c r="AX24">
-        <v>5.3290705182007514E-15</v>
+        <v>5.329070518200751E-15</v>
       </c>
       <c r="AY24">
-        <v>9.0353196731792691E-16</v>
+        <v>9.035319673179269E-16</v>
       </c>
       <c r="AZ24">
         <v>-16.19929999999999</v>
       </c>
       <c r="BA24">
-        <v>14.270500000000011</v>
+        <v>14.27050000000001</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -4233,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:55">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4289,22 +4657,22 @@
         <v>82</v>
       </c>
       <c r="U25">
-        <v>404.17335073704612</v>
+        <v>404.1733507370461</v>
       </c>
       <c r="V25">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W25">
-        <v>2741.0591745000002</v>
+        <v>2741.0591745</v>
       </c>
       <c r="X25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Y25">
-        <v>404.17335073704612</v>
+        <v>404.1733507370461</v>
       </c>
       <c r="Z25">
-        <v>386.17335073704612</v>
+        <v>386.1733507370461</v>
       </c>
       <c r="AA25">
         <v>18</v>
@@ -4316,7 +4684,7 @@
         <v>438</v>
       </c>
       <c r="AD25">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4325,31 +4693,31 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.15572280472705671</v>
+        <v>0.1557228047270567</v>
       </c>
       <c r="AH25">
-        <v>0.15572280472705671</v>
+        <v>0.1557228047270567</v>
       </c>
       <c r="AI25">
-        <v>0.14878763574578791</v>
+        <v>0.1487876357457879</v>
       </c>
       <c r="AK25">
         <v>117.832588729582</v>
       </c>
       <c r="AL25">
-        <v>268.34076200746409</v>
+        <v>268.3407620074641</v>
       </c>
       <c r="AN25">
         <v>79.39423410906565</v>
       </c>
       <c r="AO25">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP25">
-        <v>693.72452710375546</v>
+        <v>693.7245271037555</v>
       </c>
       <c r="AQ25">
-        <v>2595.4666784062961</v>
+        <v>2595.466678406296</v>
       </c>
       <c r="AR25">
         <v>1094.388561628032</v>
@@ -4358,16 +4726,16 @@
         <v>1509.974238681267</v>
       </c>
       <c r="AT25">
-        <v>5.2108694950744363</v>
+        <v>5.210869495074436</v>
       </c>
       <c r="AU25">
         <v>268.8458555737335</v>
       </c>
       <c r="AV25">
-        <v>0.50509356626942292</v>
+        <v>0.5050935662694229</v>
       </c>
       <c r="AW25">
-        <v>196.38764788263671</v>
+        <v>196.3876478826367</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -4388,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:55">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4444,22 +4812,22 @@
         <v>81</v>
       </c>
       <c r="U26">
-        <v>321.02742652696878</v>
+        <v>321.0274265269688</v>
       </c>
       <c r="V26">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W26">
-        <v>5637.4311757000014</v>
+        <v>5637.431175700001</v>
       </c>
       <c r="X26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Y26">
-        <v>321.02742652696878</v>
+        <v>321.0274265269688</v>
       </c>
       <c r="Z26">
-        <v>303.02742652696878</v>
+        <v>303.0274265269688</v>
       </c>
       <c r="AA26">
         <v>18</v>
@@ -4471,7 +4839,7 @@
         <v>438</v>
       </c>
       <c r="AD26">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4480,43 +4848,43 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.12526740565682731</v>
+        <v>0.1252674056568273</v>
       </c>
       <c r="AH26">
-        <v>0.12526740565682731</v>
+        <v>0.1252674056568273</v>
       </c>
       <c r="AI26">
         <v>0.1182436652673641</v>
       </c>
       <c r="AK26">
-        <v>87.276957246813708</v>
+        <v>87.27695724681371</v>
       </c>
       <c r="AL26">
         <v>215.7504692801551</v>
       </c>
       <c r="AN26">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO26">
         <v>1862.336656134451</v>
       </c>
       <c r="AP26">
-        <v>700.40043292469704</v>
+        <v>700.400432924697</v>
       </c>
       <c r="AQ26">
-        <v>2562.7370890591469</v>
+        <v>2562.737089059147</v>
       </c>
       <c r="AR26">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS26">
-        <v>1608.8503641113291</v>
+        <v>1608.850364111329</v>
       </c>
       <c r="AT26">
-        <v>19.835081621612101</v>
+        <v>19.8350816216121</v>
       </c>
       <c r="AU26">
-        <v>218.88010153884409</v>
+        <v>218.8801015388441</v>
       </c>
       <c r="AV26">
         <v>3.129632258688996</v>
@@ -4543,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:55">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4599,22 +4967,22 @@
         <v>81</v>
       </c>
       <c r="U27">
-        <v>340.37478570237357</v>
+        <v>340.3747857023736</v>
       </c>
       <c r="V27">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W27">
-        <v>4319.5899329000003</v>
+        <v>4319.5899329</v>
       </c>
       <c r="X27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Y27">
-        <v>340.37478570237357</v>
+        <v>340.3747857023736</v>
       </c>
       <c r="Z27">
-        <v>322.37478570237357</v>
+        <v>322.3747857023736</v>
       </c>
       <c r="AA27">
         <v>18</v>
@@ -4626,7 +4994,7 @@
         <v>438</v>
       </c>
       <c r="AD27">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4641,43 +5009,43 @@
         <v>0.1328165392722977</v>
       </c>
       <c r="AI27">
-        <v>0.12579281775318429</v>
+        <v>0.1257928177531843</v>
       </c>
       <c r="AK27">
-        <v>109.68526661999999</v>
+        <v>109.68526662</v>
       </c>
       <c r="AL27">
-        <v>212.68951908237349</v>
+        <v>212.6895190823735</v>
       </c>
       <c r="AN27">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO27">
         <v>1862.336656134451</v>
       </c>
       <c r="AP27">
-        <v>700.40731812725062</v>
+        <v>700.4073181272506</v>
       </c>
       <c r="AQ27">
-        <v>2562.7439742617012</v>
+        <v>2562.743974261701</v>
       </c>
       <c r="AR27">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS27">
         <v>1619.905042328402</v>
       </c>
       <c r="AT27">
-        <v>29.734085842879761</v>
+        <v>29.73408584287976</v>
       </c>
       <c r="AU27">
         <v>217.0041739327786</v>
       </c>
       <c r="AV27">
-        <v>4.3146548504050592</v>
+        <v>4.314654850405059</v>
       </c>
       <c r="AW27">
-        <v>182.80877770000009</v>
+        <v>182.8087777000001</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -4686,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>-9.3715451999999928</v>
+        <v>-9.371545199999993</v>
       </c>
       <c r="BA27">
         <v>13.92137769999999</v>
@@ -4698,12 +5066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:55">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -4751,7 +5119,7 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -4759,8 +5127,107 @@
       <c r="T28">
         <v>0.03</v>
       </c>
+      <c r="U28">
+        <v>339.4282016781833</v>
+      </c>
+      <c r="V28">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W28">
+        <v>5223.596315299998</v>
+      </c>
+      <c r="X28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28">
+        <v>339.4282016781833</v>
+      </c>
+      <c r="Z28">
+        <v>321.4282016781833</v>
+      </c>
+      <c r="AA28">
+        <v>18</v>
+      </c>
+      <c r="AB28">
+        <v>18</v>
+      </c>
+      <c r="AC28">
+        <v>438</v>
+      </c>
+      <c r="AD28">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0.1324471757956113</v>
+      </c>
+      <c r="AH28">
+        <v>0.1324471757956113</v>
+      </c>
+      <c r="AI28">
+        <v>0.125423454276498</v>
+      </c>
+      <c r="AK28">
+        <v>108.9588351571784</v>
+      </c>
+      <c r="AL28">
+        <v>212.4693665210048</v>
+      </c>
+      <c r="AN28">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AO28">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AP28">
+        <v>700.4073181272511</v>
+      </c>
+      <c r="AQ28">
+        <v>2562.743974261702</v>
+      </c>
+      <c r="AR28">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AS28">
+        <v>1622.056884581272</v>
+      </c>
+      <c r="AT28">
+        <v>31.79942046620835</v>
+      </c>
+      <c r="AU28">
+        <v>217.1009270379363</v>
+      </c>
+      <c r="AV28">
+        <v>4.631560516931495</v>
+      </c>
+      <c r="AW28">
+        <v>181.5980585952973</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>-9.849210277953134</v>
+      </c>
+      <c r="BA28">
+        <v>12.71065859529735</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:55">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4816,22 +5283,22 @@
         <v>81</v>
       </c>
       <c r="U29">
-        <v>336.75873575236778</v>
+        <v>336.7587357523678</v>
       </c>
       <c r="V29">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W29">
-        <v>4926.5233102999991</v>
+        <v>4926.523310299999</v>
       </c>
       <c r="X29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Y29">
-        <v>336.75873575236778</v>
+        <v>336.7587357523678</v>
       </c>
       <c r="Z29">
-        <v>318.75873575236778</v>
+        <v>318.7587357523678</v>
       </c>
       <c r="AA29">
         <v>18</v>
@@ -4843,7 +5310,7 @@
         <v>438</v>
       </c>
       <c r="AD29">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4852,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.13140653844351161</v>
+        <v>0.1314065384435116</v>
       </c>
       <c r="AH29">
-        <v>0.13140653844351161</v>
+        <v>0.1314065384435116</v>
       </c>
       <c r="AI29">
         <v>0.1243827631383253</v>
@@ -4864,34 +5331,34 @@
         <v>106.4060359165518</v>
       </c>
       <c r="AL29">
-        <v>212.35269983581591</v>
+        <v>212.3526998358159</v>
       </c>
       <c r="AN29">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO29">
         <v>1862.336656134451</v>
       </c>
       <c r="AP29">
-        <v>700.38769336306018</v>
+        <v>700.3876933630602</v>
       </c>
       <c r="AQ29">
         <v>2562.724349497511</v>
       </c>
       <c r="AR29">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS29">
-        <v>1618.8529163310559</v>
+        <v>1618.852916331056</v>
       </c>
       <c r="AT29">
-        <v>28.665440879670559</v>
+        <v>28.66544087967056</v>
       </c>
       <c r="AU29">
-        <v>216.50616432614069</v>
+        <v>216.5061643261407</v>
       </c>
       <c r="AV29">
-        <v>4.1534644903248186</v>
+        <v>4.153464490324819</v>
       </c>
       <c r="AW29">
         <v>177.343393194253</v>
@@ -4903,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="AZ29">
-        <v>-14.662973288702601</v>
+        <v>-14.6629732887026</v>
       </c>
       <c r="BA29">
-        <v>9.9019678789736503</v>
+        <v>9.90196787897365</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -4915,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:55">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4971,22 +5438,22 @@
         <v>81</v>
       </c>
       <c r="U30">
-        <v>340.22422895400712</v>
+        <v>340.2242289540071</v>
       </c>
       <c r="V30">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W30">
-        <v>5403.5406042000004</v>
+        <v>5403.5406042</v>
       </c>
       <c r="X30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y30">
-        <v>340.22422895400712</v>
+        <v>340.2242289540071</v>
       </c>
       <c r="Z30">
-        <v>322.22422895400712</v>
+        <v>322.2242289540071</v>
       </c>
       <c r="AA30">
         <v>18</v>
@@ -4998,7 +5465,7 @@
         <v>438</v>
       </c>
       <c r="AD30">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -5007,49 +5474,49 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.13275779101266719</v>
+        <v>0.1327577910126672</v>
       </c>
       <c r="AH30">
-        <v>0.13275779101266719</v>
+        <v>0.1327577910126672</v>
       </c>
       <c r="AI30">
-        <v>0.12573406949355381</v>
+        <v>0.1257340694935538</v>
       </c>
       <c r="AK30">
-        <v>108.58992000000001</v>
+        <v>108.58992</v>
       </c>
       <c r="AL30">
-        <v>213.63430895400711</v>
+        <v>213.6343089540071</v>
       </c>
       <c r="AN30">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO30">
         <v>1862.336656134451</v>
       </c>
       <c r="AP30">
-        <v>700.40731812725073</v>
+        <v>700.4073181272507</v>
       </c>
       <c r="AQ30">
-        <v>2562.7439742617012</v>
+        <v>2562.743974261701</v>
       </c>
       <c r="AR30">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS30">
-        <v>1621.3378549699271</v>
+        <v>1621.337854969927</v>
       </c>
       <c r="AT30">
-        <v>30.843570402001379</v>
+        <v>30.84357040200138</v>
       </c>
       <c r="AU30">
         <v>218.3282803595676</v>
       </c>
       <c r="AV30">
-        <v>4.6939714055604638</v>
+        <v>4.693971405560464</v>
       </c>
       <c r="AW30">
-        <v>180.98320000000001</v>
+        <v>180.9832</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -5058,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AZ30">
-        <v>-15.535600000000001</v>
+        <v>-15.5356</v>
       </c>
       <c r="BA30">
         <v>14.1259</v>
@@ -5070,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:55">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5129,13 +5596,13 @@
         <v>406.8163820868121</v>
       </c>
       <c r="V31">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W31">
         <v>2788.4104849</v>
       </c>
       <c r="X31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Y31">
         <v>406.8163820868121</v>
@@ -5153,7 +5620,7 @@
         <v>438</v>
       </c>
       <c r="AD31">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -5162,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.15873612456875011</v>
+        <v>0.1587361245687501</v>
       </c>
       <c r="AH31">
-        <v>0.15873612456875011</v>
+        <v>0.1587361245687501</v>
       </c>
       <c r="AI31">
         <v>0.1517126850809376</v>
@@ -5174,37 +5641,37 @@
         <v>113.9669336698602</v>
       </c>
       <c r="AL31">
-        <v>274.84944841695187</v>
+        <v>274.8494484169519</v>
       </c>
       <c r="AN31">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO31">
         <v>1862.336656134451</v>
       </c>
       <c r="AP31">
-        <v>700.51022696818086</v>
+        <v>700.5102269681809</v>
       </c>
       <c r="AQ31">
-        <v>2562.8468831026312</v>
+        <v>2562.846883102631</v>
       </c>
       <c r="AR31">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS31">
-        <v>1573.5177818156119</v>
+        <v>1573.517781815612</v>
       </c>
       <c r="AT31">
-        <v>5.6431807879044698</v>
+        <v>5.64318078790447</v>
       </c>
       <c r="AU31">
-        <v>275.34758842948997</v>
+        <v>275.34758842949</v>
       </c>
       <c r="AV31">
         <v>0.4981400125380876</v>
       </c>
       <c r="AW31">
-        <v>189.94488944976709</v>
+        <v>189.9448894497671</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -5225,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:55">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5284,13 +5751,13 @@
         <v>296.7916234635627</v>
       </c>
       <c r="V32">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W32">
-        <v>4298.2884479999993</v>
+        <v>4298.288447999999</v>
       </c>
       <c r="X32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y32">
         <v>296.7916234635627</v>
@@ -5308,7 +5775,7 @@
         <v>438</v>
       </c>
       <c r="AD32">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -5317,49 +5784,49 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.13348146239246661</v>
+        <v>0.1334814623924666</v>
       </c>
       <c r="AH32">
-        <v>0.13348146239246661</v>
+        <v>0.1334814623924666</v>
       </c>
       <c r="AI32">
-        <v>0.12538599697796041</v>
+        <v>0.1253859969779604</v>
       </c>
       <c r="AK32">
-        <v>92.959221933774828</v>
+        <v>92.95922193377483</v>
       </c>
       <c r="AL32">
-        <v>185.83240152978789</v>
+        <v>185.8324015297879</v>
       </c>
       <c r="AN32">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO32">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP32">
-        <v>545.30342309900709</v>
+        <v>545.3034230990071</v>
       </c>
       <c r="AQ32">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR32">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS32">
-        <v>1451.1015948315339</v>
+        <v>1451.101594831534</v>
       </c>
       <c r="AT32">
-        <v>43.514923602827267</v>
+        <v>43.51492360282727</v>
       </c>
       <c r="AU32">
-        <v>193.29479968231161</v>
+        <v>193.2947996823116</v>
       </c>
       <c r="AV32">
-        <v>7.4623981525237593</v>
+        <v>7.462398152523759</v>
       </c>
       <c r="AW32">
-        <v>154.93203655629139</v>
+        <v>154.9320365562914</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -5380,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:55">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5436,22 +5903,22 @@
         <v>81</v>
       </c>
       <c r="U33">
-        <v>309.88182399612009</v>
+        <v>309.8818239961201</v>
       </c>
       <c r="V33">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W33">
         <v>4300.562857500001</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Y33">
-        <v>309.88182399612009</v>
+        <v>309.8818239961201</v>
       </c>
       <c r="Z33">
-        <v>291.88182399612009</v>
+        <v>291.8818239961201</v>
       </c>
       <c r="AA33">
         <v>18</v>
@@ -5463,7 +5930,7 @@
         <v>438</v>
       </c>
       <c r="AD33">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5478,43 +5945,43 @@
         <v>0.1393687549302593</v>
       </c>
       <c r="AI33">
-        <v>0.13127328951575309</v>
+        <v>0.1312732895157531</v>
       </c>
       <c r="AK33">
         <v>106.75437846</v>
       </c>
       <c r="AL33">
-        <v>185.12744553612009</v>
+        <v>185.1274455361201</v>
       </c>
       <c r="AN33">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO33">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP33">
-        <v>545.30342309900686</v>
+        <v>545.3034230990069</v>
       </c>
       <c r="AQ33">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR33">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS33">
-        <v>1465.3290646403891</v>
+        <v>1465.329064640389</v>
       </c>
       <c r="AT33">
-        <v>56.843124634422622</v>
+        <v>56.84312463442262</v>
       </c>
       <c r="AU33">
-        <v>193.93794572843419</v>
+        <v>193.9379457284342</v>
       </c>
       <c r="AV33">
-        <v>8.8105001923140698</v>
+        <v>8.81050019231407</v>
       </c>
       <c r="AW33">
-        <v>177.92396410000001</v>
+        <v>177.9239641</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -5526,7 +5993,7 @@
         <v>-11.2707692</v>
       </c>
       <c r="BA33">
-        <v>9.2829169999999976</v>
+        <v>9.282916999999998</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -5535,12 +6002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:55">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -5588,7 +6055,7 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s">
         <v>83</v>
@@ -5596,8 +6063,107 @@
       <c r="T34">
         <v>0.03</v>
       </c>
+      <c r="U34">
+        <v>310.046063666321</v>
+      </c>
+      <c r="V34">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W34">
+        <v>4585.337855700003</v>
+      </c>
+      <c r="X34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y34">
+        <v>310.046063666321</v>
+      </c>
+      <c r="Z34">
+        <v>292.046063666321</v>
+      </c>
+      <c r="AA34">
+        <v>18</v>
+      </c>
+      <c r="AB34">
+        <v>18</v>
+      </c>
+      <c r="AC34">
+        <v>438</v>
+      </c>
+      <c r="AD34">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0.1394426214063594</v>
+      </c>
+      <c r="AH34">
+        <v>0.1394426214063594</v>
+      </c>
+      <c r="AI34">
+        <v>0.1313471559918532</v>
+      </c>
+      <c r="AK34">
+        <v>107.0002052254133</v>
+      </c>
+      <c r="AL34">
+        <v>185.0458584409077</v>
+      </c>
+      <c r="AN34">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO34">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP34">
+        <v>545.3034230990067</v>
+      </c>
+      <c r="AQ34">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR34">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS34">
+        <v>1463.947284667432</v>
+      </c>
+      <c r="AT34">
+        <v>55.32775513951722</v>
+      </c>
+      <c r="AU34">
+        <v>193.9896642055235</v>
+      </c>
+      <c r="AV34">
+        <v>8.943805764615767</v>
+      </c>
+      <c r="AW34">
+        <v>178.3336753756889</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>-9.819638781404919</v>
+      </c>
+      <c r="BA34">
+        <v>12.92261319616517</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:55">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5653,22 +6219,22 @@
         <v>81</v>
       </c>
       <c r="U35">
-        <v>309.60599266067641</v>
+        <v>309.6059926606764</v>
       </c>
       <c r="V35">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W35">
-        <v>3996.4873075999999</v>
+        <v>3996.4873076</v>
       </c>
       <c r="X35" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Y35">
-        <v>309.60599266067641</v>
+        <v>309.6059926606764</v>
       </c>
       <c r="Z35">
-        <v>291.60599266067641</v>
+        <v>291.6059926606764</v>
       </c>
       <c r="AA35">
         <v>18</v>
@@ -5680,7 +6246,7 @@
         <v>438</v>
       </c>
       <c r="AD35">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5689,49 +6255,49 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.13924470031713029</v>
+        <v>0.1392447003171303</v>
       </c>
       <c r="AH35">
-        <v>0.13924470031713029</v>
+        <v>0.1392447003171303</v>
       </c>
       <c r="AI35">
-        <v>0.13114923490262409</v>
+        <v>0.1311492349026241</v>
       </c>
       <c r="AK35">
         <v>106.0479950548862</v>
       </c>
       <c r="AL35">
-        <v>185.55799760579021</v>
+        <v>185.5579976057902</v>
       </c>
       <c r="AN35">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO35">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP35">
-        <v>545.30342309900698</v>
+        <v>545.303423099007</v>
       </c>
       <c r="AQ35">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR35">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS35">
-        <v>1461.8067330680319</v>
+        <v>1461.806733068032</v>
       </c>
       <c r="AT35">
-        <v>53.288224844609992</v>
+        <v>53.28822484460999</v>
       </c>
       <c r="AU35">
-        <v>193.57252891570721</v>
+        <v>193.5725289157072</v>
       </c>
       <c r="AV35">
-        <v>8.0145313099169559</v>
+        <v>8.014531309916956</v>
       </c>
       <c r="AW35">
-        <v>176.74665842481031</v>
+        <v>176.7466584248103</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -5740,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="AZ35">
-        <v>-12.671797090554961</v>
+        <v>-12.67179709055496</v>
       </c>
       <c r="BA35">
-        <v>9.8738014563410275</v>
+        <v>9.873801456341027</v>
       </c>
       <c r="BB35">
         <v>0</v>
@@ -5752,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:55">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5808,22 +6374,22 @@
         <v>81</v>
       </c>
       <c r="U36">
-        <v>312.04607053245468</v>
+        <v>312.0460705324547</v>
       </c>
       <c r="V36">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W36">
-        <v>4404.4078176999974</v>
+        <v>4404.407817699997</v>
       </c>
       <c r="X36" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y36">
-        <v>312.04607053245468</v>
+        <v>312.0460705324547</v>
       </c>
       <c r="Z36">
-        <v>294.04607053245468</v>
+        <v>294.0460705324547</v>
       </c>
       <c r="AA36">
         <v>18</v>
@@ -5835,7 +6401,7 @@
         <v>438</v>
       </c>
       <c r="AD36">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5850,34 +6416,34 @@
         <v>0.1403421206515571</v>
       </c>
       <c r="AI36">
-        <v>0.13224665523705101</v>
+        <v>0.132246655237051</v>
       </c>
       <c r="AK36">
         <v>107.97528</v>
       </c>
       <c r="AL36">
-        <v>186.07079053245471</v>
+        <v>186.0707905324547</v>
       </c>
       <c r="AN36">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO36">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP36">
-        <v>545.30342309900652</v>
+        <v>545.3034230990065</v>
       </c>
       <c r="AQ36">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR36">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS36">
         <v>1461.334418764568</v>
       </c>
       <c r="AT36">
-        <v>52.891492687124931</v>
+        <v>52.89149268712493</v>
       </c>
       <c r="AU36">
         <v>194.8048880688803</v>
@@ -5889,16 +6455,16 @@
         <v>179.9588</v>
       </c>
       <c r="AX36">
-        <v>2.1316282072803009E-14</v>
+        <v>2.131628207280301E-14</v>
       </c>
       <c r="AY36">
-        <v>3.6141278692717076E-15</v>
+        <v>3.614127869271708E-15</v>
       </c>
       <c r="AZ36">
         <v>-15.8574</v>
       </c>
       <c r="BA36">
-        <v>11.196700000000011</v>
+        <v>11.19670000000001</v>
       </c>
       <c r="BB36">
         <v>0</v>
@@ -5907,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:55">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5963,22 +6529,22 @@
         <v>82</v>
       </c>
       <c r="U37">
-        <v>373.16421286263619</v>
+        <v>373.1642128626362</v>
       </c>
       <c r="V37">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W37">
-        <v>2186.2111362999999</v>
+        <v>2186.2111363</v>
       </c>
       <c r="X37" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y37">
-        <v>373.16421286263619</v>
+        <v>373.1642128626362</v>
       </c>
       <c r="Z37">
-        <v>355.16421286263619</v>
+        <v>355.1642128626362</v>
       </c>
       <c r="AA37">
         <v>18</v>
@@ -5990,7 +6556,7 @@
         <v>438</v>
       </c>
       <c r="AD37">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -5999,55 +6565,55 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0.16783059642566139</v>
+        <v>0.1678305964256614</v>
       </c>
       <c r="AH37">
-        <v>0.16783059642566139</v>
+        <v>0.1678305964256614</v>
       </c>
       <c r="AI37">
         <v>0.1597350968264703</v>
       </c>
       <c r="AK37">
-        <v>130.25024071374651</v>
+        <v>130.2502407137465</v>
       </c>
       <c r="AL37">
-        <v>238.14317254876769</v>
+        <v>238.1431725487677</v>
       </c>
       <c r="AN37">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO37">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP37">
-        <v>545.29403411479598</v>
+        <v>545.294034114796</v>
       </c>
       <c r="AQ37">
-        <v>2223.4575864593621</v>
+        <v>2223.457586459362</v>
       </c>
       <c r="AR37">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS37">
         <v>1394.275333979085</v>
       </c>
       <c r="AT37">
-        <v>4.7718162428039914</v>
+        <v>4.771816242803991</v>
       </c>
       <c r="AU37">
-        <v>238.59942811381919</v>
+        <v>238.5994281138192</v>
       </c>
       <c r="AV37">
-        <v>0.45625556505147619</v>
+        <v>0.4562555650514762</v>
       </c>
       <c r="AW37">
-        <v>217.08373452291079</v>
+        <v>217.0837345229108</v>
       </c>
       <c r="AX37">
-        <v>78.026394616265151</v>
+        <v>78.02639461626515</v>
       </c>
       <c r="AY37">
-        <v>13.229200399877911</v>
+        <v>13.22920039987791</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -6062,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:55">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6118,22 +6684,22 @@
         <v>81</v>
       </c>
       <c r="U38">
-        <v>202.53950957131889</v>
+        <v>202.5395095713189</v>
       </c>
       <c r="V38">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W38">
-        <v>3978.9581250999981</v>
+        <v>3978.958125099998</v>
       </c>
       <c r="X38" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Y38">
-        <v>202.53950957131889</v>
+        <v>202.5395095713189</v>
       </c>
       <c r="Z38">
-        <v>184.53950957131889</v>
+        <v>184.5395095713189</v>
       </c>
       <c r="AA38">
         <v>18</v>
@@ -6145,7 +6711,7 @@
         <v>438</v>
       </c>
       <c r="AD38">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6154,43 +6720,43 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>9.43232994175974E-2</v>
+        <v>0.0943232994175974</v>
       </c>
       <c r="AH38">
-        <v>9.43232994175974E-2</v>
+        <v>0.0943232994175974</v>
       </c>
       <c r="AI38">
-        <v>8.5940641667955175E-2</v>
+        <v>0.08594064166795518</v>
       </c>
       <c r="AK38">
-        <v>64.250985475254637</v>
+        <v>64.25098547525464</v>
       </c>
       <c r="AL38">
-        <v>132.72389013686259</v>
+        <v>132.7238901368626</v>
       </c>
       <c r="AN38">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO38">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP38">
-        <v>558.73555273538011</v>
+        <v>558.7355527353801</v>
       </c>
       <c r="AQ38">
-        <v>2147.2903388866421</v>
+        <v>2147.290338886642</v>
       </c>
       <c r="AR38">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS38">
-        <v>1090.1242507198731</v>
+        <v>1090.124250719873</v>
       </c>
       <c r="AT38">
-        <v>84.675326152418663</v>
+        <v>84.67532615241866</v>
       </c>
       <c r="AU38">
-        <v>145.72469822482259</v>
+        <v>145.7246982248226</v>
       </c>
       <c r="AV38">
         <v>13.00080808796004</v>
@@ -6199,7 +6765,7 @@
         <v>107.0849757920911</v>
       </c>
       <c r="AX38">
-        <v>73.344410376156077</v>
+        <v>73.34441037615608</v>
       </c>
       <c r="AY38">
         <v>12.43536604079827</v>
@@ -6217,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6273,22 +6839,22 @@
         <v>81</v>
       </c>
       <c r="U39">
-        <v>252.16228238334611</v>
+        <v>252.1622823833461</v>
       </c>
       <c r="V39">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W39">
         <v>3675.982071400002</v>
       </c>
       <c r="X39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y39">
-        <v>252.16228238334611</v>
+        <v>252.1622823833461</v>
       </c>
       <c r="Z39">
-        <v>234.16228238334611</v>
+        <v>234.1622823833461</v>
       </c>
       <c r="AA39">
         <v>18</v>
@@ -6300,7 +6866,7 @@
         <v>438</v>
       </c>
       <c r="AD39">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -6324,34 +6890,34 @@
         <v>127.9291290833461</v>
       </c>
       <c r="AN39">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO39">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP39">
-        <v>558.59572080260625</v>
+        <v>558.5957208026063</v>
       </c>
       <c r="AQ39">
         <v>2147.150506953868</v>
       </c>
       <c r="AR39">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS39">
-        <v>1120.4997732486149</v>
+        <v>1120.499773248615</v>
       </c>
       <c r="AT39">
-        <v>114.95715891193549</v>
+        <v>114.9571589119355</v>
       </c>
       <c r="AU39">
-        <v>145.42784350953769</v>
+        <v>145.4278435095377</v>
       </c>
       <c r="AV39">
-        <v>17.498714426191562</v>
+        <v>17.49871442619156</v>
       </c>
       <c r="AW39">
-        <v>177.05525549999999</v>
+        <v>177.0552555</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -6363,7 +6929,7 @@
         <v>-11.5378943</v>
       </c>
       <c r="BA39">
-        <v>8.4215313999999921</v>
+        <v>8.421531399999992</v>
       </c>
       <c r="BB39">
         <v>0</v>
@@ -6372,12 +6938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:55">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
@@ -6425,7 +6991,7 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s">
         <v>83</v>
@@ -6433,8 +6999,107 @@
       <c r="T40">
         <v>0.03</v>
       </c>
+      <c r="U40">
+        <v>251.9006697188483</v>
+      </c>
+      <c r="V40">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W40">
+        <v>4901.583142700001</v>
+      </c>
+      <c r="X40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y40">
+        <v>251.9006697188483</v>
+      </c>
+      <c r="Z40">
+        <v>233.9006697188483</v>
+      </c>
+      <c r="AA40">
+        <v>18</v>
+      </c>
+      <c r="AB40">
+        <v>18</v>
+      </c>
+      <c r="AC40">
+        <v>438</v>
+      </c>
+      <c r="AD40">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0.1173185898720329</v>
+      </c>
+      <c r="AH40">
+        <v>0.1173185898720329</v>
+      </c>
+      <c r="AI40">
+        <v>0.1089353862066614</v>
+      </c>
+      <c r="AK40">
+        <v>106.0617940916422</v>
+      </c>
+      <c r="AL40">
+        <v>127.8388756272061</v>
+      </c>
+      <c r="AN40">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AO40">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AP40">
+        <v>558.5957208026063</v>
+      </c>
+      <c r="AQ40">
+        <v>2147.150506953868</v>
+      </c>
+      <c r="AR40">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AS40">
+        <v>1123.364214516176</v>
+      </c>
+      <c r="AT40">
+        <v>117.6735987811586</v>
+      </c>
+      <c r="AU40">
+        <v>145.7453532470194</v>
+      </c>
+      <c r="AV40">
+        <v>17.90647761981323</v>
+      </c>
+      <c r="AW40">
+        <v>176.7696568194037</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>-9.772978176423536</v>
+      </c>
+      <c r="BA40">
+        <v>8.853624948216321</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:55">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6490,22 +7155,22 @@
         <v>81</v>
       </c>
       <c r="U41">
-        <v>252.82986087998461</v>
+        <v>252.8298608799846</v>
       </c>
       <c r="V41">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W41">
-        <v>3702.7966012999968</v>
+        <v>3702.796601299997</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Y41">
-        <v>252.82986087998461</v>
+        <v>252.8298608799846</v>
       </c>
       <c r="Z41">
-        <v>234.82986087998461</v>
+        <v>234.8298608799846</v>
       </c>
       <c r="AA41">
         <v>18</v>
@@ -6517,7 +7182,7 @@
         <v>438</v>
       </c>
       <c r="AD41">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6526,37 +7191,37 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0.11775134535802551</v>
+        <v>0.1177513453580255</v>
       </c>
       <c r="AH41">
-        <v>0.11775134535802551</v>
+        <v>0.1177513453580255</v>
       </c>
       <c r="AI41">
-        <v>0.10936814169265401</v>
+        <v>0.109368141692654</v>
       </c>
       <c r="AK41">
         <v>105.8134854485876</v>
       </c>
       <c r="AL41">
-        <v>129.01637543139699</v>
+        <v>129.016375431397</v>
       </c>
       <c r="AN41">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO41">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP41">
-        <v>558.59572080260659</v>
+        <v>558.5957208026066</v>
       </c>
       <c r="AQ41">
         <v>2147.150506953868</v>
       </c>
       <c r="AR41">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS41">
-        <v>1108.5947649377119</v>
+        <v>1108.594764937712</v>
       </c>
       <c r="AT41">
         <v>103.7263248307593</v>
@@ -6568,7 +7233,7 @@
         <v>15.7302732578554</v>
       </c>
       <c r="AW41">
-        <v>176.35580908097941</v>
+        <v>176.3558090809794</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -6589,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:55">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6648,13 +7313,13 @@
         <v>251.5382333873612</v>
       </c>
       <c r="V42">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W42">
-        <v>4534.0121399999989</v>
+        <v>4534.012139999999</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y42">
         <v>251.5382333873612</v>
@@ -6672,7 +7337,7 @@
         <v>438</v>
       </c>
       <c r="AD42">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -6690,37 +7355,37 @@
         <v>0.1087665874520732</v>
       </c>
       <c r="AK42">
-        <v>104.51448000000001</v>
+        <v>104.51448</v>
       </c>
       <c r="AL42">
-        <v>129.02375338736121</v>
+        <v>129.0237533873612</v>
       </c>
       <c r="AN42">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO42">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP42">
-        <v>558.59572080260659</v>
+        <v>558.5957208026066</v>
       </c>
       <c r="AQ42">
         <v>2147.150506953868</v>
       </c>
       <c r="AR42">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS42">
-        <v>1116.4104386521969</v>
+        <v>1116.410438652197</v>
       </c>
       <c r="AT42">
-        <v>111.27599439868921</v>
+        <v>111.2759943986892</v>
       </c>
       <c r="AU42">
-        <v>146.00869745047731</v>
+        <v>146.0086974504773</v>
       </c>
       <c r="AV42">
-        <v>16.984944063116181</v>
+        <v>16.98494406311618</v>
       </c>
       <c r="AW42">
         <v>174.1908</v>
@@ -6744,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:55">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6800,22 +7465,22 @@
         <v>82</v>
       </c>
       <c r="U43">
-        <v>281.70780807850832</v>
+        <v>281.7078080785083</v>
       </c>
       <c r="V43">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W43">
-        <v>2440.4113533000018</v>
+        <v>2440.411353300002</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Y43">
-        <v>281.70780807850832</v>
+        <v>281.7078080785083</v>
       </c>
       <c r="Z43">
-        <v>263.70780807850832</v>
+        <v>263.7078080785083</v>
       </c>
       <c r="AA43">
         <v>18</v>
@@ -6827,7 +7492,7 @@
         <v>438</v>
       </c>
       <c r="AD43">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -6836,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0.13118293547240539</v>
+        <v>0.1311829354724054</v>
       </c>
       <c r="AH43">
-        <v>0.13118293547240539</v>
+        <v>0.1311829354724054</v>
       </c>
       <c r="AI43">
         <v>0.1228008716076891</v>
@@ -6851,31 +7516,31 @@
         <v>174.7900379939887</v>
       </c>
       <c r="AN43">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO43">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP43">
-        <v>558.88769227815362</v>
+        <v>558.8876922781536</v>
       </c>
       <c r="AQ43">
         <v>2147.442478429416</v>
       </c>
       <c r="AR43">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS43">
         <v>1013.817661960604</v>
       </c>
       <c r="AT43">
-        <v>28.644924667230899</v>
+        <v>28.6449246672309</v>
       </c>
       <c r="AU43">
-        <v>177.58811220232619</v>
+        <v>177.5881122023262</v>
       </c>
       <c r="AV43">
-        <v>2.7980742083375398</v>
+        <v>2.79807420833754</v>
       </c>
       <c r="AW43">
         <v>148.1962834741993</v>
@@ -6899,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:55">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6955,22 +7620,22 @@
         <v>81</v>
       </c>
       <c r="U44">
-        <v>220.75377046960369</v>
+        <v>220.7537704696037</v>
       </c>
       <c r="V44">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W44">
-        <v>4188.3488907999999</v>
+        <v>4188.3488908</v>
       </c>
       <c r="X44" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y44">
-        <v>220.75377046960369</v>
+        <v>220.7537704696037</v>
       </c>
       <c r="Z44">
-        <v>202.75377046960369</v>
+        <v>202.7537704696037</v>
       </c>
       <c r="AA44">
         <v>18</v>
@@ -6982,7 +7647,7 @@
         <v>438</v>
       </c>
       <c r="AD44">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6997,49 +7662,49 @@
         <v>0.102867560579391</v>
       </c>
       <c r="AI44">
-        <v>9.4479861984299571E-2</v>
+        <v>0.09447986198429957</v>
       </c>
       <c r="AK44">
-        <v>63.165990017745713</v>
+        <v>63.16599001774571</v>
       </c>
       <c r="AL44">
-        <v>139.58778045185801</v>
+        <v>139.587780451858</v>
       </c>
       <c r="AN44">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO44">
         <v>1615.704738151263</v>
       </c>
       <c r="AP44">
-        <v>530.29512056251076</v>
+        <v>530.2951205625108</v>
       </c>
       <c r="AQ44">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR44">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS44">
         <v>1125.677785147956</v>
       </c>
       <c r="AT44">
-        <v>65.794903854094116</v>
+        <v>65.79490385409412</v>
       </c>
       <c r="AU44">
         <v>150.4450001598336</v>
       </c>
       <c r="AV44">
-        <v>10.857219707975631</v>
+        <v>10.85721970797563</v>
       </c>
       <c r="AW44">
         <v>105.2766500295762</v>
       </c>
       <c r="AX44">
-        <v>2.1316282072803009E-14</v>
+        <v>2.131628207280301E-14</v>
       </c>
       <c r="AY44">
-        <v>3.6141236782017448E-15</v>
+        <v>3.614123678201745E-15</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -7054,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:55">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7110,22 +7775,22 @@
         <v>81</v>
       </c>
       <c r="U45">
-        <v>259.96893044209412</v>
+        <v>259.9689304420941</v>
       </c>
       <c r="V45">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W45">
         <v>3913.832762100003</v>
       </c>
       <c r="X45" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Y45">
-        <v>259.96893044209412</v>
+        <v>259.9689304420941</v>
       </c>
       <c r="Z45">
-        <v>241.96893044209409</v>
+        <v>241.9689304420941</v>
       </c>
       <c r="AA45">
         <v>18</v>
@@ -7137,7 +7802,7 @@
         <v>438</v>
       </c>
       <c r="AD45">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -7158,49 +7823,49 @@
         <v>105.72771822</v>
       </c>
       <c r="AL45">
-        <v>136.24121222209411</v>
+        <v>136.2412122220941</v>
       </c>
       <c r="AN45">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO45">
         <v>1615.704738151263</v>
       </c>
       <c r="AP45">
-        <v>530.29512056251144</v>
+        <v>530.2951205625114</v>
       </c>
       <c r="AQ45">
-        <v>2145.9998587137738</v>
+        <v>2145.999858713774</v>
       </c>
       <c r="AR45">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS45">
-        <v>1138.9637313272419</v>
+        <v>1138.963731327242</v>
       </c>
       <c r="AT45">
         <v>77.95116703029737</v>
       </c>
       <c r="AU45">
-        <v>148.44229163684179</v>
+        <v>148.4422916368418</v>
       </c>
       <c r="AV45">
         <v>12.20107941474768</v>
       </c>
       <c r="AW45">
-        <v>176.21286370000001</v>
+        <v>176.2128637</v>
       </c>
       <c r="AX45">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY45">
         <v>6.023539463669574E-16</v>
       </c>
       <c r="AZ45">
-        <v>-8.9287703999999977</v>
+        <v>-8.928770399999998</v>
       </c>
       <c r="BA45">
-        <v>7.4296906999999948</v>
+        <v>7.429690699999995</v>
       </c>
       <c r="BB45">
         <v>0</v>
@@ -7209,12 +7874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:55">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -7262,7 +7927,7 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s">
         <v>83</v>
@@ -7270,8 +7935,107 @@
       <c r="T46">
         <v>0.03</v>
       </c>
+      <c r="U46">
+        <v>260.418076798796</v>
+      </c>
+      <c r="V46">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W46">
+        <v>4377.4886979</v>
+      </c>
+      <c r="X46" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y46">
+        <v>260.418076798796</v>
+      </c>
+      <c r="Z46">
+        <v>242.418076798796</v>
+      </c>
+      <c r="AA46">
+        <v>18</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>438</v>
+      </c>
+      <c r="AD46">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0.1213504631612046</v>
+      </c>
+      <c r="AH46">
+        <v>0.1213504631612046</v>
+      </c>
+      <c r="AI46">
+        <v>0.1129627645661131</v>
+      </c>
+      <c r="AK46">
+        <v>106.7076862868745</v>
+      </c>
+      <c r="AL46">
+        <v>135.7103905119214</v>
+      </c>
+      <c r="AN46">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO46">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP46">
+        <v>530.2951205625104</v>
+      </c>
+      <c r="AQ46">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AR46">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS46">
+        <v>1141.459291888863</v>
+      </c>
+      <c r="AT46">
+        <v>79.97801759112561</v>
+      </c>
+      <c r="AU46">
+        <v>148.2859250549687</v>
+      </c>
+      <c r="AV46">
+        <v>12.57553454304724</v>
+      </c>
+      <c r="AW46">
+        <v>177.8461438114576</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>-9.792484221143496</v>
+      </c>
+      <c r="BA46">
+        <v>10.3888435624515</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:55">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7327,22 +8091,22 @@
         <v>81</v>
       </c>
       <c r="U47">
-        <v>258.41383531299499</v>
+        <v>258.413835312995</v>
       </c>
       <c r="V47">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W47">
         <v>3434.058429600002</v>
       </c>
       <c r="X47" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Y47">
-        <v>258.41383531299499</v>
+        <v>258.413835312995</v>
       </c>
       <c r="Z47">
-        <v>240.41383531299499</v>
+        <v>240.413835312995</v>
       </c>
       <c r="AA47">
         <v>18</v>
@@ -7354,7 +8118,7 @@
         <v>438</v>
       </c>
       <c r="AD47">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -7363,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>0.12041652018927811</v>
+        <v>0.1204165201892781</v>
       </c>
       <c r="AH47">
-        <v>0.12041652018927811</v>
+        <v>0.1204165201892781</v>
       </c>
       <c r="AI47">
         <v>0.1120288215941866</v>
@@ -7375,25 +8139,25 @@
         <v>104.352103293657</v>
       </c>
       <c r="AL47">
-        <v>136.06173201933811</v>
+        <v>136.0617320193381</v>
       </c>
       <c r="AN47">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO47">
         <v>1615.704738151263</v>
       </c>
       <c r="AP47">
-        <v>530.29512056251087</v>
+        <v>530.2951205625109</v>
       </c>
       <c r="AQ47">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR47">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS47">
-        <v>1141.1840659071161</v>
+        <v>1141.184065907116</v>
       </c>
       <c r="AT47">
         <v>79.87912893561716</v>
@@ -7405,19 +8169,19 @@
         <v>12.76153228911005</v>
       </c>
       <c r="AW47">
-        <v>173.92017215609499</v>
+        <v>173.920172156095</v>
       </c>
       <c r="AX47">
-        <v>1.4210854715202001E-14</v>
+        <v>1.4210854715202E-14</v>
       </c>
       <c r="AY47">
         <v>2.40941578546783E-15</v>
       </c>
       <c r="AZ47">
-        <v>-9.0130585592351622</v>
+        <v>-9.013058559235162</v>
       </c>
       <c r="BA47">
-        <v>11.605235898302711</v>
+        <v>11.60523589830271</v>
       </c>
       <c r="BB47">
         <v>0</v>
@@ -7426,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:55">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7485,13 +8249,13 @@
         <v>260.3549877483315</v>
       </c>
       <c r="V48">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W48">
-        <v>4566.8816076000003</v>
+        <v>4566.8816076</v>
       </c>
       <c r="X48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y48">
         <v>260.3549877483315</v>
@@ -7509,7 +8273,7 @@
         <v>438</v>
       </c>
       <c r="AD48">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -7518,46 +8282,46 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.12132106472009641</v>
+        <v>0.1213210647200964</v>
       </c>
       <c r="AH48">
-        <v>0.12132106472009641</v>
+        <v>0.1213210647200964</v>
       </c>
       <c r="AI48">
         <v>0.112933366125005</v>
       </c>
       <c r="AK48">
-        <v>105.50033999999999</v>
+        <v>105.50034</v>
       </c>
       <c r="AL48">
         <v>136.8546477483315</v>
       </c>
       <c r="AN48">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO48">
         <v>1615.704738151263</v>
       </c>
       <c r="AP48">
-        <v>530.29512056251099</v>
+        <v>530.295120562511</v>
       </c>
       <c r="AQ48">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR48">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS48">
-        <v>1144.6902316358539</v>
+        <v>1144.690231635854</v>
       </c>
       <c r="AT48">
-        <v>83.392648393552705</v>
+        <v>83.3926483935527</v>
       </c>
       <c r="AU48">
-        <v>149.97150920630179</v>
+        <v>149.9715092063018</v>
       </c>
       <c r="AV48">
-        <v>13.116861457970289</v>
+        <v>13.11686145797029</v>
       </c>
       <c r="AW48">
         <v>175.8339</v>
@@ -7569,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="AZ48">
-        <v>-13.001200000000001</v>
+        <v>-13.0012</v>
       </c>
       <c r="BA48">
         <v>14.71709999999999</v>
@@ -7581,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:55">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7640,13 +8404,13 @@
         <v>284.9565950485669</v>
       </c>
       <c r="V49">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W49">
-        <v>2651.2357080000002</v>
+        <v>2651.235708</v>
       </c>
       <c r="X49" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Y49">
         <v>284.9565950485669</v>
@@ -7664,7 +8428,7 @@
         <v>438</v>
       </c>
       <c r="AD49">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -7673,34 +8437,34 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0.13278500177505079</v>
+        <v>0.1327850017750508</v>
       </c>
       <c r="AH49">
-        <v>0.13278500177505079</v>
+        <v>0.1327850017750508</v>
       </c>
       <c r="AI49">
         <v>0.1243973031799593</v>
       </c>
       <c r="AK49">
-        <v>82.825798593990513</v>
+        <v>82.82579859399051</v>
       </c>
       <c r="AL49">
         <v>184.1307964545764</v>
       </c>
       <c r="AN49">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO49">
         <v>1615.704738151263</v>
       </c>
       <c r="AP49">
-        <v>530.29512056250951</v>
+        <v>530.2951205625095</v>
       </c>
       <c r="AQ49">
         <v>2145.999858713772</v>
       </c>
       <c r="AR49">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS49">
         <v>1050.96200448077</v>
@@ -7709,7 +8473,7 @@
         <v>10.15305457700342</v>
       </c>
       <c r="AU49">
-        <v>185.13781775618409</v>
+        <v>185.1378177561841</v>
       </c>
       <c r="AV49">
         <v>1.007021301607659</v>
@@ -7736,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:55">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7792,22 +8556,22 @@
         <v>81</v>
       </c>
       <c r="U50">
-        <v>279.80678919080492</v>
+        <v>279.8067891908049</v>
       </c>
       <c r="V50">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W50">
-        <v>4451.6327409000041</v>
+        <v>4451.632740900004</v>
       </c>
       <c r="X50" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Y50">
-        <v>279.80678919080492</v>
+        <v>279.8067891908049</v>
       </c>
       <c r="Z50">
-        <v>261.80678919080492</v>
+        <v>261.8067891908049</v>
       </c>
       <c r="AA50">
         <v>18</v>
@@ -7819,7 +8583,7 @@
         <v>438</v>
       </c>
       <c r="AD50">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -7837,40 +8601,40 @@
         <v>0.117104028991937</v>
       </c>
       <c r="AK50">
-        <v>88.561481839182008</v>
+        <v>88.56148183918201</v>
       </c>
       <c r="AL50">
-        <v>173.24530735162281</v>
+        <v>173.2453073516228</v>
       </c>
       <c r="AN50">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO50">
         <v>1640.910548940604</v>
       </c>
       <c r="AP50">
-        <v>594.76649346782767</v>
+        <v>594.7664934678277</v>
       </c>
       <c r="AQ50">
         <v>2235.677042408432</v>
       </c>
       <c r="AR50">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS50">
-        <v>1285.9645220659279</v>
+        <v>1285.964522065928</v>
       </c>
       <c r="AT50">
         <v>14.39977265977131</v>
       </c>
       <c r="AU50">
-        <v>175.77413894412231</v>
+        <v>175.7741389441223</v>
       </c>
       <c r="AV50">
         <v>2.5288315924995</v>
       </c>
       <c r="AW50">
-        <v>147.60246973196999</v>
+        <v>147.60246973197</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -7891,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:55">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7947,22 +8711,22 @@
         <v>81</v>
       </c>
       <c r="U51">
-        <v>292.75647206991562</v>
+        <v>292.7564720699156</v>
       </c>
       <c r="V51">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W51">
-        <v>4233.5072648999958</v>
+        <v>4233.507264899996</v>
       </c>
       <c r="X51" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y51">
-        <v>292.75647206991562</v>
+        <v>292.7564720699156</v>
       </c>
       <c r="Z51">
-        <v>274.75647206991562</v>
+        <v>274.7564720699156</v>
       </c>
       <c r="AA51">
         <v>18</v>
@@ -7974,7 +8738,7 @@
         <v>438</v>
       </c>
       <c r="AD51">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -7983,10 +8747,10 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0.13094756823845061</v>
+        <v>0.1309475682384506</v>
       </c>
       <c r="AH51">
-        <v>0.13094756823845061</v>
+        <v>0.1309475682384506</v>
       </c>
       <c r="AI51">
         <v>0.1228963159070275</v>
@@ -7995,37 +8759,37 @@
         <v>107.68123944</v>
       </c>
       <c r="AL51">
-        <v>167.07523262991549</v>
+        <v>167.0752326299155</v>
       </c>
       <c r="AN51">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO51">
         <v>1640.910548940604</v>
       </c>
       <c r="AP51">
-        <v>594.76649346782847</v>
+        <v>594.7664934678285</v>
       </c>
       <c r="AQ51">
         <v>2235.677042408432</v>
       </c>
       <c r="AR51">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS51">
         <v>1312.3885158198</v>
       </c>
       <c r="AT51">
-        <v>38.400168478512903</v>
+        <v>38.4001684785129</v>
       </c>
       <c r="AU51">
         <v>172.5188796019045</v>
       </c>
       <c r="AV51">
-        <v>5.4436469719889971</v>
+        <v>5.443646971988997</v>
       </c>
       <c r="AW51">
-        <v>179.46873239999999</v>
+        <v>179.4687324</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -8034,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AZ51">
-        <v>-15.257862899999999</v>
+        <v>-15.2578629</v>
       </c>
       <c r="BA51">
         <v>13.17740139999999</v>
@@ -8046,12 +8810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:55">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -8099,7 +8863,7 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s">
         <v>83</v>
@@ -8107,8 +8871,107 @@
       <c r="T52">
         <v>0.03</v>
       </c>
+      <c r="U52">
+        <v>292.7916664973411</v>
+      </c>
+      <c r="V52">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W52">
+        <v>4397.846623199999</v>
+      </c>
+      <c r="X52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y52">
+        <v>292.7916664973411</v>
+      </c>
+      <c r="Z52">
+        <v>274.7916664973411</v>
+      </c>
+      <c r="AA52">
+        <v>18</v>
+      </c>
+      <c r="AB52">
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <v>438</v>
+      </c>
+      <c r="AD52">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0.1309633104171097</v>
+      </c>
+      <c r="AH52">
+        <v>0.1309633104171097</v>
+      </c>
+      <c r="AI52">
+        <v>0.1229120580856866</v>
+      </c>
+      <c r="AK52">
+        <v>107.8772516242402</v>
+      </c>
+      <c r="AL52">
+        <v>166.9144148731008</v>
+      </c>
+      <c r="AN52">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO52">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP52">
+        <v>594.7664934678274</v>
+      </c>
+      <c r="AQ52">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR52">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS52">
+        <v>1308.443942720427</v>
+      </c>
+      <c r="AT52">
+        <v>34.22148939859237</v>
+      </c>
+      <c r="AU52">
+        <v>172.2746248642747</v>
+      </c>
+      <c r="AV52">
+        <v>5.360209991173893</v>
+      </c>
+      <c r="AW52">
+        <v>179.7954193737338</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>-9.093406737441342</v>
+      </c>
+      <c r="BA52">
+        <v>10.90801937373374</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:55">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8164,22 +9027,22 @@
         <v>81</v>
       </c>
       <c r="U53">
-        <v>291.72104636707053</v>
+        <v>291.7210463670705</v>
       </c>
       <c r="V53">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W53">
-        <v>3933.3652125000008</v>
+        <v>3933.365212500001</v>
       </c>
       <c r="X53" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y53">
-        <v>291.72104636707053</v>
+        <v>291.7210463670705</v>
       </c>
       <c r="Z53">
-        <v>273.72104636707053</v>
+        <v>273.7210463670705</v>
       </c>
       <c r="AA53">
         <v>18</v>
@@ -8191,7 +9054,7 @@
         <v>438</v>
       </c>
       <c r="AD53">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -8206,43 +9069,43 @@
         <v>0.1304844308160035</v>
       </c>
       <c r="AI53">
-        <v>0.12243317848458039</v>
+        <v>0.1224331784845804</v>
       </c>
       <c r="AK53">
         <v>106.248898163098</v>
       </c>
       <c r="AL53">
-        <v>167.47214820397241</v>
+        <v>167.4721482039724</v>
       </c>
       <c r="AN53">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO53">
         <v>1640.910548940604</v>
       </c>
       <c r="AP53">
-        <v>594.76649346782835</v>
+        <v>594.7664934678284</v>
       </c>
       <c r="AQ53">
         <v>2235.677042408432</v>
       </c>
       <c r="AR53">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS53">
         <v>1303.865392640163</v>
       </c>
       <c r="AT53">
-        <v>29.987022225172371</v>
+        <v>29.98702222517237</v>
       </c>
       <c r="AU53">
         <v>172.1772977655354</v>
       </c>
       <c r="AV53">
-        <v>4.7051495615629211</v>
+        <v>4.705149561562921</v>
       </c>
       <c r="AW53">
-        <v>177.08149693849671</v>
+        <v>177.0814969384967</v>
       </c>
       <c r="AX53">
         <v>0</v>
@@ -8263,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:55">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8319,22 +9182,22 @@
         <v>81</v>
       </c>
       <c r="U54">
-        <v>291.49506335206718</v>
+        <v>291.4950633520672</v>
       </c>
       <c r="V54">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W54">
-        <v>5353.4059587000011</v>
+        <v>5353.405958700001</v>
       </c>
       <c r="X54" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y54">
-        <v>291.49506335206718</v>
+        <v>291.4950633520672</v>
       </c>
       <c r="Z54">
-        <v>273.49506335206718</v>
+        <v>273.4950633520672</v>
       </c>
       <c r="AA54">
         <v>18</v>
@@ -8346,7 +9209,7 @@
         <v>438</v>
       </c>
       <c r="AD54">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -8367,22 +9230,22 @@
         <v>105.43656</v>
       </c>
       <c r="AL54">
-        <v>168.05850335206719</v>
+        <v>168.0585033520672</v>
       </c>
       <c r="AN54">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO54">
         <v>1640.910548940604</v>
       </c>
       <c r="AP54">
-        <v>594.76649346782847</v>
+        <v>594.7664934678285</v>
       </c>
       <c r="AQ54">
         <v>2235.677042408432</v>
       </c>
       <c r="AR54">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS54">
         <v>1304.637381713183</v>
@@ -8391,10 +9254,10 @@
         <v>30.90425842165865</v>
       </c>
       <c r="AU54">
-        <v>173.01313925779019</v>
+        <v>173.0131392577902</v>
       </c>
       <c r="AV54">
-        <v>4.9546359057230376</v>
+        <v>4.954635905723038</v>
       </c>
       <c r="AW54">
         <v>175.7276</v>
@@ -8409,7 +9272,7 @@
         <v>-14.2308</v>
       </c>
       <c r="BA54">
-        <v>17.121000000000009</v>
+        <v>17.12100000000001</v>
       </c>
       <c r="BB54">
         <v>0</v>
@@ -8418,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:55">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8474,22 +9337,22 @@
         <v>82</v>
       </c>
       <c r="U55">
-        <v>348.35314674999722</v>
+        <v>348.3531467499972</v>
       </c>
       <c r="V55">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W55">
         <v>2549.584180600003</v>
       </c>
       <c r="X55" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y55">
-        <v>348.35314674999722</v>
+        <v>348.3531467499972</v>
       </c>
       <c r="Z55">
-        <v>330.35314674999722</v>
+        <v>330.3531467499972</v>
       </c>
       <c r="AA55">
         <v>18</v>
@@ -8501,7 +9364,7 @@
         <v>438</v>
       </c>
       <c r="AD55">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -8516,43 +9379,43 @@
         <v>0.1558155047183051</v>
       </c>
       <c r="AI55">
-        <v>0.14776425238688201</v>
+        <v>0.147764252386882</v>
       </c>
       <c r="AK55">
-        <v>108.74298395652561</v>
+        <v>108.7429839565256</v>
       </c>
       <c r="AL55">
         <v>221.6101627934716</v>
       </c>
       <c r="AN55">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO55">
         <v>1640.910548940604</v>
       </c>
       <c r="AP55">
-        <v>594.76649346782665</v>
+        <v>594.7664934678266</v>
       </c>
       <c r="AQ55">
-        <v>2235.6770424084311</v>
+        <v>2235.677042408431</v>
       </c>
       <c r="AR55">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS55">
         <v>1252.275043262551</v>
       </c>
       <c r="AT55">
-        <v>6.0417110703047069E-15</v>
+        <v>6.041711070304707E-15</v>
       </c>
       <c r="AU55">
         <v>221.6101627934716</v>
       </c>
       <c r="AV55">
-        <v>4.9458068762359795E-16</v>
+        <v>4.94580687623598E-16</v>
       </c>
       <c r="AW55">
-        <v>181.23830659420929</v>
+        <v>181.2383065942093</v>
       </c>
       <c r="AX55">
         <v>0</v>
@@ -8573,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:55">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8632,13 +9495,13 @@
         <v>339.9099808382465</v>
       </c>
       <c r="V56">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W56">
-        <v>5697.3863946999991</v>
+        <v>5697.386394699999</v>
       </c>
       <c r="X56" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y56">
         <v>339.9099808382465</v>
@@ -8656,7 +9519,7 @@
         <v>438</v>
       </c>
       <c r="AD56">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -8665,43 +9528,43 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0.12620587378539891</v>
+        <v>0.1262058737853989</v>
       </c>
       <c r="AH56">
-        <v>0.12620587378539891</v>
+        <v>0.1262058737853989</v>
       </c>
       <c r="AI56">
         <v>0.1195226168756283</v>
       </c>
       <c r="AK56">
-        <v>80.867059908839323</v>
+        <v>80.86705990883932</v>
       </c>
       <c r="AL56">
-        <v>251.38582798082271</v>
+        <v>251.3858279808227</v>
       </c>
       <c r="AN56">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO56">
         <v>1861.262727529411</v>
       </c>
       <c r="AP56">
-        <v>832.03490310409848</v>
+        <v>832.0349031040985</v>
       </c>
       <c r="AQ56">
         <v>2693.297630633509</v>
       </c>
       <c r="AR56">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS56">
-        <v>1787.0986643238641</v>
+        <v>1787.098664323864</v>
       </c>
       <c r="AT56">
         <v>1.10288652160475E-14</v>
       </c>
       <c r="AU56">
-        <v>251.38582798082271</v>
+        <v>251.3858279808227</v>
       </c>
       <c r="AV56">
         <v>1.430315104003324E-15</v>
@@ -8713,7 +9576,7 @@
         <v>61.00298268443759</v>
       </c>
       <c r="AY56">
-        <v>10.342907051415541</v>
+        <v>10.34290705141554</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -8728,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:55">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8784,22 +9647,22 @@
         <v>81</v>
       </c>
       <c r="U57">
-        <v>379.58423433964577</v>
+        <v>379.5842343396458</v>
       </c>
       <c r="V57">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W57">
-        <v>6370.6660045000026</v>
+        <v>6370.666004500003</v>
       </c>
       <c r="X57" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Y57">
-        <v>379.58423433964577</v>
+        <v>379.5842343396458</v>
       </c>
       <c r="Z57">
-        <v>361.58423433964577</v>
+        <v>361.5842343396458</v>
       </c>
       <c r="AA57">
         <v>18</v>
@@ -8811,7 +9674,7 @@
         <v>438</v>
       </c>
       <c r="AD57">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -8820,13 +9683,13 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0.14093660872168859</v>
+        <v>0.1409366087216886</v>
       </c>
       <c r="AH57">
-        <v>0.14093660872168859</v>
+        <v>0.1409366087216886</v>
       </c>
       <c r="AI57">
-        <v>0.13425335181191811</v>
+        <v>0.1342533518119181</v>
       </c>
       <c r="AK57">
         <v>116.4712629</v>
@@ -8835,34 +9698,34 @@
         <v>245.1129714396458</v>
       </c>
       <c r="AN57">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO57">
         <v>1861.262727529411</v>
       </c>
       <c r="AP57">
-        <v>832.03490310409813</v>
+        <v>832.0349031040981</v>
       </c>
       <c r="AQ57">
         <v>2693.297630633509</v>
       </c>
       <c r="AR57">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS57">
         <v>1796.756024848255</v>
       </c>
       <c r="AT57">
-        <v>10.071517321549839</v>
+        <v>10.07151732154984</v>
       </c>
       <c r="AU57">
-        <v>246.34049808611269</v>
+        <v>246.3404980861127</v>
       </c>
       <c r="AV57">
         <v>1.227526646466891</v>
       </c>
       <c r="AW57">
-        <v>194.11877150000001</v>
+        <v>194.1187715</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -8871,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>-8.4512329000000008</v>
+        <v>-8.451232900000001</v>
       </c>
       <c r="BA57">
-        <v>25.231371499999991</v>
+        <v>25.23137149999999</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -8883,12 +9746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:55">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -8936,7 +9799,7 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S58" t="s">
         <v>83</v>
@@ -8944,8 +9807,107 @@
       <c r="T58">
         <v>0.03</v>
       </c>
+      <c r="U58">
+        <v>372.753870045193</v>
+      </c>
+      <c r="V58">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W58">
+        <v>4952.721652599997</v>
+      </c>
+      <c r="X58" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y58">
+        <v>372.753870045193</v>
+      </c>
+      <c r="Z58">
+        <v>354.753870045193</v>
+      </c>
+      <c r="AA58">
+        <v>18</v>
+      </c>
+      <c r="AB58">
+        <v>18</v>
+      </c>
+      <c r="AC58">
+        <v>438</v>
+      </c>
+      <c r="AD58">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0.1384005487568468</v>
+      </c>
+      <c r="AH58">
+        <v>0.1384005487568468</v>
+      </c>
+      <c r="AI58">
+        <v>0.1317172918470763</v>
+      </c>
+      <c r="AK58">
+        <v>109.6959654353748</v>
+      </c>
+      <c r="AL58">
+        <v>245.0579046098181</v>
+      </c>
+      <c r="AN58">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO58">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP58">
+        <v>832.0349031040988</v>
+      </c>
+      <c r="AQ58">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR58">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS58">
+        <v>1796.437463972309</v>
+      </c>
+      <c r="AT58">
+        <v>9.700347987307193</v>
+      </c>
+      <c r="AU58">
+        <v>246.3862519806416</v>
+      </c>
+      <c r="AV58">
+        <v>1.328347370823506</v>
+      </c>
+      <c r="AW58">
+        <v>182.8266090589581</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>-12.1752766092888</v>
+      </c>
+      <c r="BA58">
+        <v>13.93920905895803</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:55">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9001,22 +9963,22 @@
         <v>81</v>
       </c>
       <c r="U59">
-        <v>371.08639593686439</v>
+        <v>371.0863959368644</v>
       </c>
       <c r="V59">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W59">
-        <v>4959.8165584000017</v>
+        <v>4959.816558400002</v>
       </c>
       <c r="X59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y59">
-        <v>371.08639593686439</v>
+        <v>371.0863959368644</v>
       </c>
       <c r="Z59">
-        <v>353.08639593686439</v>
+        <v>353.0863959368644</v>
       </c>
       <c r="AA59">
         <v>18</v>
@@ -9028,7 +9990,7 @@
         <v>438</v>
       </c>
       <c r="AD59">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -9037,13 +9999,13 @@
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>0.13778142887593839</v>
+        <v>0.1377814288759384</v>
       </c>
       <c r="AH59">
-        <v>0.13778142887593839</v>
+        <v>0.1377814288759384</v>
       </c>
       <c r="AI59">
-        <v>0.13109817196616791</v>
+        <v>0.1310981719661679</v>
       </c>
       <c r="AK59">
         <v>108.1378678442093</v>
@@ -9052,34 +10014,34 @@
         <v>244.9485280926551</v>
       </c>
       <c r="AN59">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO59">
         <v>1861.262727529411</v>
       </c>
       <c r="AP59">
-        <v>832.03490310409916</v>
+        <v>832.0349031040992</v>
       </c>
       <c r="AQ59">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR59">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS59">
-        <v>1789.7678824004031</v>
+        <v>1789.767882400403</v>
       </c>
       <c r="AT59">
-        <v>3.0954721182953331</v>
+        <v>3.095472118295333</v>
       </c>
       <c r="AU59">
-        <v>245.39967828617239</v>
+        <v>245.3996782861724</v>
       </c>
       <c r="AV59">
-        <v>0.45115019351725361</v>
+        <v>0.4511501935172536</v>
       </c>
       <c r="AW59">
-        <v>180.22977974034879</v>
+        <v>180.2297797403488</v>
       </c>
       <c r="AX59">
         <v>0</v>
@@ -9091,7 +10053,7 @@
         <v>-12.71181636181905</v>
       </c>
       <c r="BA59">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BB59">
         <v>0</v>
@@ -9100,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:55">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9156,22 +10118,22 @@
         <v>81</v>
       </c>
       <c r="U60">
-        <v>372.35169106140262</v>
+        <v>372.3516910614026</v>
       </c>
       <c r="V60">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W60">
-        <v>6275.3708460999987</v>
+        <v>6275.370846099999</v>
       </c>
       <c r="X60" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y60">
-        <v>372.35169106140262</v>
+        <v>372.3516910614026</v>
       </c>
       <c r="Z60">
-        <v>354.35169106140262</v>
+        <v>354.3516910614026</v>
       </c>
       <c r="AA60">
         <v>18</v>
@@ -9183,7 +10145,7 @@
         <v>438</v>
       </c>
       <c r="AD60">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -9198,46 +10160,46 @@
         <v>0.1382512228972701</v>
       </c>
       <c r="AI60">
-        <v>0.13156796598749951</v>
+        <v>0.1315679659874995</v>
       </c>
       <c r="AK60">
         <v>108.11478</v>
       </c>
       <c r="AL60">
-        <v>246.23691106140251</v>
+        <v>246.2369110614025</v>
       </c>
       <c r="AN60">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO60">
         <v>1861.262727529411</v>
       </c>
       <c r="AP60">
-        <v>832.03490310409779</v>
+        <v>832.0349031040978</v>
       </c>
       <c r="AQ60">
         <v>2693.297630633509</v>
       </c>
       <c r="AR60">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS60">
         <v>1793.102932933401</v>
       </c>
       <c r="AT60">
-        <v>6.4946652208066089</v>
+        <v>6.494665220806609</v>
       </c>
       <c r="AU60">
-        <v>247.16502079750771</v>
+        <v>247.1650207975077</v>
       </c>
       <c r="AV60">
-        <v>0.92810973610513403</v>
+        <v>0.928109736105134</v>
       </c>
       <c r="AW60">
-        <v>180.19130000000001</v>
+        <v>180.1913</v>
       </c>
       <c r="AX60">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AY60">
         <v>1.204707892733915E-15</v>
@@ -9246,7 +10208,7 @@
         <v>-16.59869999999999</v>
       </c>
       <c r="BA60">
-        <v>15.948999999999989</v>
+        <v>15.94899999999999</v>
       </c>
       <c r="BB60">
         <v>0</v>
@@ -9255,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:55">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9311,22 +10273,22 @@
         <v>82</v>
       </c>
       <c r="U61">
-        <v>440.35346651424072</v>
+        <v>440.3534665142407</v>
       </c>
       <c r="V61">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W61">
-        <v>3227.8084165000041</v>
+        <v>3227.808416500004</v>
       </c>
       <c r="X61" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y61">
-        <v>440.35346651424072</v>
+        <v>440.3534665142407</v>
       </c>
       <c r="Z61">
-        <v>422.35346651424072</v>
+        <v>422.3534665142407</v>
       </c>
       <c r="AA61">
         <v>18</v>
@@ -9338,7 +10300,7 @@
         <v>438</v>
       </c>
       <c r="AD61">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -9347,10 +10309,10 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>0.16349974154570579</v>
+        <v>0.1634997415457058</v>
       </c>
       <c r="AH61">
-        <v>0.16349974154570579</v>
+        <v>0.1634997415457058</v>
       </c>
       <c r="AI61">
         <v>0.1568164846359352</v>
@@ -9362,25 +10324,25 @@
         <v>319.199425320469</v>
       </c>
       <c r="AN61">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO61">
         <v>1861.262727529411</v>
       </c>
       <c r="AP61">
-        <v>832.03490310409961</v>
+        <v>832.0349031040996</v>
       </c>
       <c r="AQ61">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR61">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS61">
-        <v>1762.2183606291819</v>
+        <v>1762.218360629182</v>
       </c>
       <c r="AT61">
-        <v>3.8548436151825269E-15</v>
+        <v>3.854843615182527E-15</v>
       </c>
       <c r="AU61">
         <v>319.199425320469</v>
@@ -9389,7 +10351,7 @@
         <v>3.394555225146606E-16</v>
       </c>
       <c r="AW61">
-        <v>171.92340198961949</v>
+        <v>171.9234019896195</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -9410,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:55">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9466,22 +10428,22 @@
         <v>81</v>
       </c>
       <c r="U62">
-        <v>387.03680133019418</v>
+        <v>387.0368013301942</v>
       </c>
       <c r="V62">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W62">
         <v>5517.785017000002</v>
       </c>
       <c r="X62" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y62">
-        <v>387.03680133019418</v>
+        <v>387.0368013301942</v>
       </c>
       <c r="Z62">
-        <v>369.03680133019418</v>
+        <v>369.0368013301942</v>
       </c>
       <c r="AA62">
         <v>18</v>
@@ -9493,7 +10455,7 @@
         <v>438</v>
       </c>
       <c r="AD62">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE62">
         <v>0</v>
@@ -9502,28 +10464,28 @@
         <v>0</v>
       </c>
       <c r="AG62">
-        <v>0.15385287051789459</v>
+        <v>0.1538528705178946</v>
       </c>
       <c r="AH62">
-        <v>0.15385287051789459</v>
+        <v>0.1538528705178946</v>
       </c>
       <c r="AI62">
-        <v>0.14669760347402649</v>
+        <v>0.1466976034740265</v>
       </c>
       <c r="AK62">
         <v>101.067015513013</v>
       </c>
       <c r="AL62">
-        <v>267.96978581718122</v>
+        <v>267.9697858171812</v>
       </c>
       <c r="AN62">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO62">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP62">
-        <v>754.43308972077966</v>
+        <v>754.4330897207797</v>
       </c>
       <c r="AQ62">
         <v>2515.629380377261</v>
@@ -9535,10 +10497,10 @@
         <v>1914.615875829375</v>
       </c>
       <c r="AT62">
-        <v>0.96866258355037682</v>
+        <v>0.9686625835503768</v>
       </c>
       <c r="AU62">
-        <v>268.14065789691949</v>
+        <v>268.1406578969195</v>
       </c>
       <c r="AV62">
         <v>0.170872079738286</v>
@@ -9565,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:55">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9621,22 +10583,22 @@
         <v>81</v>
       </c>
       <c r="U63">
-        <v>396.17621086195368</v>
+        <v>396.1762108619537</v>
       </c>
       <c r="V63">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W63">
-        <v>4971.3109078000052</v>
+        <v>4971.310907800005</v>
       </c>
       <c r="X63" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y63">
-        <v>396.17621086195368</v>
+        <v>396.1762108619537</v>
       </c>
       <c r="Z63">
-        <v>378.17621086195368</v>
+        <v>378.1762108619537</v>
       </c>
       <c r="AA63">
         <v>18</v>
@@ -9648,7 +10610,7 @@
         <v>438</v>
       </c>
       <c r="AD63">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -9657,28 +10619,28 @@
         <v>0</v>
       </c>
       <c r="AG63">
-        <v>0.15748592139695089</v>
+        <v>0.1574859213969509</v>
       </c>
       <c r="AH63">
-        <v>0.15748592139695089</v>
+        <v>0.1574859213969509</v>
       </c>
       <c r="AI63">
-        <v>0.15033065435308271</v>
+        <v>0.1503306543530827</v>
       </c>
       <c r="AK63">
         <v>110.84218206</v>
       </c>
       <c r="AL63">
-        <v>267.33402880195371</v>
+        <v>267.3340288019537</v>
       </c>
       <c r="AN63">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO63">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP63">
-        <v>754.43308972077978</v>
+        <v>754.4330897207798</v>
       </c>
       <c r="AQ63">
         <v>2515.629380377261</v>
@@ -9687,19 +10649,19 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AS63">
-        <v>1933.0225843734379</v>
+        <v>1933.022584373438</v>
       </c>
       <c r="AT63">
-        <v>18.565569492429091</v>
+        <v>18.56556949242909</v>
       </c>
       <c r="AU63">
-        <v>269.67917750447663</v>
+        <v>269.6791775044766</v>
       </c>
       <c r="AV63">
-        <v>2.3451487025229021</v>
+        <v>2.345148702522902</v>
       </c>
       <c r="AW63">
-        <v>184.73697010000001</v>
+        <v>184.7369701</v>
       </c>
       <c r="AX63">
         <v>0</v>
@@ -9708,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>-62.687575199999998</v>
+        <v>-62.6875752</v>
       </c>
       <c r="BA63">
         <v>15.84957010000001</v>
@@ -9720,12 +10682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:55">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>55</v>
       </c>
       <c r="C64" t="s">
         <v>56</v>
@@ -9773,7 +10735,7 @@
         <v>0.6</v>
       </c>
       <c r="R64" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s">
         <v>83</v>
@@ -9781,8 +10743,107 @@
       <c r="T64">
         <v>0.03</v>
       </c>
+      <c r="U64">
+        <v>392.4825913293985</v>
+      </c>
+      <c r="V64">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W64">
+        <v>4629.925994200006</v>
+      </c>
+      <c r="X64" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y64">
+        <v>392.4825913293985</v>
+      </c>
+      <c r="Z64">
+        <v>374.4825913293985</v>
+      </c>
+      <c r="AA64">
+        <v>18</v>
+      </c>
+      <c r="AB64">
+        <v>18</v>
+      </c>
+      <c r="AC64">
+        <v>438</v>
+      </c>
+      <c r="AD64">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0.1560176528350687</v>
+      </c>
+      <c r="AH64">
+        <v>0.1560176528350687</v>
+      </c>
+      <c r="AI64">
+        <v>0.1488623857912005</v>
+      </c>
+      <c r="AK64">
+        <v>107.6533880159608</v>
+      </c>
+      <c r="AL64">
+        <v>266.8292033134376</v>
+      </c>
+      <c r="AN64">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO64">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP64">
+        <v>754.4330897207803</v>
+      </c>
+      <c r="AQ64">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR64">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS64">
+        <v>1923.712624491738</v>
+      </c>
+      <c r="AT64">
+        <v>9.162801217200462</v>
+      </c>
+      <c r="AU64">
+        <v>268.1177843090146</v>
+      </c>
+      <c r="AV64">
+        <v>1.288580995576903</v>
+      </c>
+      <c r="AW64">
+        <v>179.4223133599347</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>-13.38982956790559</v>
+      </c>
+      <c r="BA64">
+        <v>10.71563458430123</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:55">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9841,13 +10902,13 @@
         <v>407.1938633905412</v>
       </c>
       <c r="V65">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W65">
-        <v>5085.1272501999993</v>
+        <v>5085.127250199999</v>
       </c>
       <c r="X65" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y65">
         <v>407.1938633905412</v>
@@ -9865,7 +10926,7 @@
         <v>438</v>
       </c>
       <c r="AD65">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -9874,10 +10935,10 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>0.16186560173242831</v>
+        <v>0.1618656017324283</v>
       </c>
       <c r="AH65">
-        <v>0.16186560173242831</v>
+        <v>0.1618656017324283</v>
       </c>
       <c r="AI65">
         <v>0.1547103346885601</v>
@@ -9886,16 +10947,16 @@
         <v>122.26998</v>
       </c>
       <c r="AL65">
-        <v>266.92388339054122</v>
+        <v>266.9238833905412</v>
       </c>
       <c r="AN65">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO65">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP65">
-        <v>754.43308972078023</v>
+        <v>754.4330897207802</v>
       </c>
       <c r="AQ65">
         <v>2515.629380377261</v>
@@ -9907,28 +10968,28 @@
         <v>1926.371985519422</v>
       </c>
       <c r="AT65">
-        <v>11.829811298346231</v>
+        <v>11.82981129834623</v>
       </c>
       <c r="AU65">
-        <v>268.55880421963889</v>
+        <v>268.5588042196389</v>
       </c>
       <c r="AV65">
-        <v>1.6349208290977439</v>
+        <v>1.634920829097744</v>
       </c>
       <c r="AW65">
         <v>203.7833</v>
       </c>
       <c r="AX65">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY65">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ65">
-        <v>-61.138085366173371</v>
+        <v>-61.13808536617337</v>
       </c>
       <c r="BA65">
-        <v>52.160114482970258</v>
+        <v>52.16011448297026</v>
       </c>
       <c r="BB65">
         <v>0</v>
@@ -9937,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:55">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9993,22 +11054,22 @@
         <v>81</v>
       </c>
       <c r="U66">
-        <v>402.01349823229322</v>
+        <v>402.0134982322932</v>
       </c>
       <c r="V66">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W66">
-        <v>4273.4704810999974</v>
+        <v>4273.470481099997</v>
       </c>
       <c r="X66" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y66">
-        <v>402.01349823229322</v>
+        <v>402.0134982322932</v>
       </c>
       <c r="Z66">
-        <v>384.01349823229322</v>
+        <v>384.0134982322932</v>
       </c>
       <c r="AA66">
         <v>18</v>
@@ -10020,7 +11081,7 @@
         <v>438</v>
       </c>
       <c r="AD66">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -10035,19 +11096,19 @@
         <v>0.1598063297273164</v>
       </c>
       <c r="AI66">
-        <v>0.15265106268344819</v>
+        <v>0.1526510626834482</v>
       </c>
       <c r="AK66">
         <v>113.03934</v>
       </c>
       <c r="AL66">
-        <v>270.97415823229318</v>
+        <v>270.9741582322932</v>
       </c>
       <c r="AN66">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO66">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP66">
         <v>754.43308972078</v>
@@ -10059,13 +11120,13 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AS66">
-        <v>1922.0338842515621</v>
+        <v>1922.033884251562</v>
       </c>
       <c r="AT66">
-        <v>8.1078363038213421</v>
+        <v>8.107836303821342</v>
       </c>
       <c r="AU66">
-        <v>272.22121491023881</v>
+        <v>272.2212149102388</v>
       </c>
       <c r="AV66">
         <v>1.247056677945495</v>
@@ -10080,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>-61.053699999999999</v>
+        <v>-61.0537</v>
       </c>
       <c r="BA66">
-        <v>57.783299999999997</v>
+        <v>57.7833</v>
       </c>
       <c r="BB66">
         <v>0</v>
@@ -10092,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:55">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10148,22 +11209,22 @@
         <v>82</v>
       </c>
       <c r="U67">
-        <v>480.19913313597908</v>
+        <v>480.1991331359791</v>
       </c>
       <c r="V67">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W67">
         <v>3013.441127099999</v>
       </c>
       <c r="X67" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y67">
-        <v>480.19913313597908</v>
+        <v>480.1991331359791</v>
       </c>
       <c r="Z67">
-        <v>462.19913313597908</v>
+        <v>462.1991331359791</v>
       </c>
       <c r="AA67">
         <v>18</v>
@@ -10175,7 +11236,7 @@
         <v>438</v>
       </c>
       <c r="AD67">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -10184,28 +11245,28 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>0.19088627954566389</v>
+        <v>0.1908862795456639</v>
       </c>
       <c r="AH67">
-        <v>0.19088627954566389</v>
+        <v>0.1908862795456639</v>
       </c>
       <c r="AI67">
-        <v>0.18373101250179569</v>
+        <v>0.1837310125017957</v>
       </c>
       <c r="AK67">
-        <v>122.73629989235531</v>
+        <v>122.7362998923553</v>
       </c>
       <c r="AL67">
-        <v>339.46283324362378</v>
+        <v>339.4628332436238</v>
       </c>
       <c r="AN67">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO67">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP67">
-        <v>754.43308972077944</v>
+        <v>754.4330897207794</v>
       </c>
       <c r="AQ67">
         <v>2515.629380377261</v>
@@ -10217,16 +11278,16 @@
         <v>1890.98697588306</v>
       </c>
       <c r="AT67">
-        <v>4.3128636010447206E-15</v>
+        <v>4.312863601044721E-15</v>
       </c>
       <c r="AU67">
-        <v>339.46283324362378</v>
+        <v>339.4628332436238</v>
       </c>
       <c r="AV67">
         <v>3.180516635054375E-16</v>
       </c>
       <c r="AW67">
-        <v>204.56049982059221</v>
+        <v>204.5604998205922</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -10247,12 +11308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:55">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>56</v>
@@ -10291,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="O68">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P68">
         <v>0.6</v>
@@ -10302,8 +11363,107 @@
       <c r="R68" t="s">
         <v>81</v>
       </c>
+      <c r="U68">
+        <v>342.9885851956686</v>
+      </c>
+      <c r="V68">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W68">
+        <v>1008.2300982</v>
+      </c>
+      <c r="X68" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y68">
+        <v>342.9885851956686</v>
+      </c>
+      <c r="Z68">
+        <v>324.9885851956686</v>
+      </c>
+      <c r="AA68">
+        <v>18</v>
+      </c>
+      <c r="AB68">
+        <v>18</v>
+      </c>
+      <c r="AC68">
+        <v>438</v>
+      </c>
+      <c r="AD68">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0.1661983658436182</v>
+      </c>
+      <c r="AH68">
+        <v>0.1661983658436182</v>
+      </c>
+      <c r="AI68">
+        <v>0.1574762954473731</v>
+      </c>
+      <c r="AK68">
+        <v>107.5353426017095</v>
+      </c>
+      <c r="AL68">
+        <v>217.4532425939592</v>
+      </c>
+      <c r="AN68">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO68">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP68">
+        <v>549.6920444315276</v>
+      </c>
+      <c r="AQ68">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AR68">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS68">
+        <v>1630.541211738563</v>
+      </c>
+      <c r="AT68">
+        <v>16.22300932804931</v>
+      </c>
+      <c r="AU68">
+        <v>220.3149814394271</v>
+      </c>
+      <c r="AV68">
+        <v>2.861738845467898</v>
+      </c>
+      <c r="AW68">
+        <v>179.2255710028491</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:55">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10359,22 +11519,22 @@
         <v>81</v>
       </c>
       <c r="U69">
-        <v>353.08137035583098</v>
+        <v>353.081370355831</v>
       </c>
       <c r="V69">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W69">
-        <v>3531.4980322999982</v>
+        <v>3531.498032299998</v>
       </c>
       <c r="X69" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y69">
-        <v>353.08137035583098</v>
+        <v>353.081370355831</v>
       </c>
       <c r="Z69">
-        <v>335.08137035583098</v>
+        <v>335.081370355831</v>
       </c>
       <c r="AA69">
         <v>18</v>
@@ -10386,7 +11546,7 @@
         <v>438</v>
       </c>
       <c r="AD69">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -10401,37 +11561,37 @@
         <v>0.1710889204359024</v>
       </c>
       <c r="AI69">
-        <v>0.16236685003965731</v>
+        <v>0.1623668500396573</v>
       </c>
       <c r="AK69">
-        <v>115.55719157999999</v>
+        <v>115.55719158</v>
       </c>
       <c r="AL69">
-        <v>219.52417877583099</v>
+        <v>219.524178775831</v>
       </c>
       <c r="AN69">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO69">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP69">
-        <v>549.69204443152682</v>
+        <v>549.6920444315268</v>
       </c>
       <c r="AQ69">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR69">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS69">
         <v>1643.108366892747</v>
       </c>
       <c r="AT69">
-        <v>29.321512049390101</v>
+        <v>29.3215120493901</v>
       </c>
       <c r="AU69">
-        <v>223.76857043405349</v>
+        <v>223.7685704340535</v>
       </c>
       <c r="AV69">
         <v>4.244391658222419</v>
@@ -10443,7 +11603,7 @@
         <v>2.664535259100376E-14</v>
       </c>
       <c r="AY69">
-        <v>4.5176598365896353E-15</v>
+        <v>4.517659836589635E-15</v>
       </c>
       <c r="AZ69">
         <v>-14.24341029999999</v>
@@ -10458,12 +11618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:55">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>55</v>
       </c>
       <c r="C70" t="s">
         <v>56</v>
@@ -10511,7 +11671,7 @@
         <v>0.6</v>
       </c>
       <c r="R70" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S70" t="s">
         <v>83</v>
@@ -10519,8 +11679,107 @@
       <c r="T70">
         <v>0.03</v>
       </c>
+      <c r="U70">
+        <v>344.453428098361</v>
+      </c>
+      <c r="V70">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W70">
+        <v>3409.650356500002</v>
+      </c>
+      <c r="X70" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y70">
+        <v>344.453428098361</v>
+      </c>
+      <c r="Z70">
+        <v>326.453428098361</v>
+      </c>
+      <c r="AA70">
+        <v>18</v>
+      </c>
+      <c r="AB70">
+        <v>18</v>
+      </c>
+      <c r="AC70">
+        <v>438</v>
+      </c>
+      <c r="AD70">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0.1669081693389918</v>
+      </c>
+      <c r="AH70">
+        <v>0.1669081693389918</v>
+      </c>
+      <c r="AI70">
+        <v>0.1581860989427467</v>
+      </c>
+      <c r="AK70">
+        <v>107.0774795331678</v>
+      </c>
+      <c r="AL70">
+        <v>219.3759485651931</v>
+      </c>
+      <c r="AN70">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO70">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP70">
+        <v>549.6920444315267</v>
+      </c>
+      <c r="AQ70">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR70">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS70">
+        <v>1638.916149281759</v>
+      </c>
+      <c r="AT70">
+        <v>24.96541888185995</v>
+      </c>
+      <c r="AU70">
+        <v>223.3911561385805</v>
+      </c>
+      <c r="AV70">
+        <v>4.015207573387318</v>
+      </c>
+      <c r="AW70">
+        <v>178.4624658886131</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>-12.96638240998267</v>
+      </c>
+      <c r="BA70">
+        <v>9.575065888613054</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:55">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10576,22 +11835,22 @@
         <v>81</v>
       </c>
       <c r="U71">
-        <v>344.78232731046978</v>
+        <v>344.7823273104698</v>
       </c>
       <c r="V71">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W71">
         <v>1753.388987599996</v>
       </c>
       <c r="X71" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y71">
-        <v>344.78232731046978</v>
+        <v>344.7823273104698</v>
       </c>
       <c r="Z71">
-        <v>326.78232731046978</v>
+        <v>326.7823273104698</v>
       </c>
       <c r="AA71">
         <v>18</v>
@@ -10603,7 +11862,7 @@
         <v>438</v>
       </c>
       <c r="AD71">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE71">
         <v>0</v>
@@ -10618,43 +11877,43 @@
         <v>0.1670675405657297</v>
       </c>
       <c r="AI71">
-        <v>0.15834547016948461</v>
+        <v>0.1583454701694846</v>
       </c>
       <c r="AK71">
         <v>106.6033800307256</v>
       </c>
       <c r="AL71">
-        <v>220.17894727974419</v>
+        <v>220.1789472797442</v>
       </c>
       <c r="AN71">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO71">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP71">
-        <v>549.69204443152694</v>
+        <v>549.6920444315269</v>
       </c>
       <c r="AQ71">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR71">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS71">
-        <v>1648.9013235768571</v>
+        <v>1648.901323576857</v>
       </c>
       <c r="AT71">
-        <v>34.912960382519557</v>
+        <v>34.91296038251956</v>
       </c>
       <c r="AU71">
         <v>224.8192448621507</v>
       </c>
       <c r="AV71">
-        <v>4.6402975824064994</v>
+        <v>4.640297582406499</v>
       </c>
       <c r="AW71">
-        <v>177.67230005120939</v>
+        <v>177.6723000512094</v>
       </c>
       <c r="AX71">
         <v>0</v>
@@ -10663,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="AZ71">
-        <v>-16.594576870801941</v>
+        <v>-16.59457687080194</v>
       </c>
       <c r="BA71">
         <v>11.74345269436844</v>
@@ -10675,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:55">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10734,13 +11993,13 @@
         <v>347.7901518128196</v>
       </c>
       <c r="V72">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W72">
         <v>1772.595983199993</v>
       </c>
       <c r="X72" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y72">
         <v>347.7901518128196</v>
@@ -10758,7 +12017,7 @@
         <v>438</v>
       </c>
       <c r="AD72">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -10773,7 +12032,7 @@
         <v>0.1685250104017878</v>
       </c>
       <c r="AI72">
-        <v>0.15980294000554271</v>
+        <v>0.1598029400055427</v>
       </c>
       <c r="AK72">
         <v>109.10934</v>
@@ -10782,34 +12041,34 @@
         <v>220.6808118128196</v>
       </c>
       <c r="AN72">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO72">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP72">
-        <v>549.69204443152694</v>
+        <v>549.6920444315269</v>
       </c>
       <c r="AQ72">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR72">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS72">
         <v>1636.982242316473</v>
       </c>
       <c r="AT72">
-        <v>22.971524229056602</v>
+        <v>22.9715242290566</v>
       </c>
       <c r="AU72">
-        <v>224.50547162434509</v>
+        <v>224.5054716243451</v>
       </c>
       <c r="AV72">
-        <v>3.8246598115255521</v>
+        <v>3.824659811525552</v>
       </c>
       <c r="AW72">
-        <v>181.84889999999999</v>
+        <v>181.8489</v>
       </c>
       <c r="AX72">
         <v>0</v>
@@ -10818,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="AZ72">
-        <v>-13.562300000000009</v>
+        <v>-13.56230000000001</v>
       </c>
       <c r="BA72">
-        <v>12.961499999999999</v>
+        <v>12.9615</v>
       </c>
       <c r="BB72">
         <v>0</v>
@@ -10830,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:55">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10886,22 +12145,22 @@
         <v>82</v>
       </c>
       <c r="U73">
-        <v>418.68469369432239</v>
+        <v>418.6846936943224</v>
       </c>
       <c r="V73">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W73">
         <v>1312.511116499998</v>
       </c>
       <c r="X73" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y73">
-        <v>418.68469369432239</v>
+        <v>418.6846936943224</v>
       </c>
       <c r="Z73">
-        <v>400.68469369432239</v>
+        <v>400.6846936943224</v>
       </c>
       <c r="AA73">
         <v>18</v>
@@ -10913,7 +12172,7 @@
         <v>438</v>
       </c>
       <c r="AD73">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE73">
         <v>0</v>
@@ -10922,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="AG73">
-        <v>0.20287763179067739</v>
+        <v>0.2028776317906774</v>
       </c>
       <c r="AH73">
-        <v>0.20287763179067739</v>
+        <v>0.2028776317906774</v>
       </c>
       <c r="AI73">
         <v>0.1941555613944323</v>
@@ -10934,22 +12193,22 @@
         <v>121.1359295774175</v>
       </c>
       <c r="AL73">
-        <v>279.54876411690498</v>
+        <v>279.548764116905</v>
       </c>
       <c r="AN73">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO73">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP73">
-        <v>549.69204443152807</v>
+        <v>549.6920444315281</v>
       </c>
       <c r="AQ73">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AR73">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS73">
         <v>1590.590509650287</v>
@@ -10958,10 +12217,10 @@
         <v>3.304060741572887E-15</v>
       </c>
       <c r="AU73">
-        <v>279.54876411690498</v>
+        <v>279.548764116905</v>
       </c>
       <c r="AV73">
-        <v>2.5026011134893038E-16</v>
+        <v>2.502601113489304E-16</v>
       </c>
       <c r="AW73">
         <v>201.8932159623624</v>
@@ -10986,14 +12245,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B73" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>